--- a/Config.xlsx
+++ b/Config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="730" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="730" firstSheet="0" activeTab="8" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Block Info" sheetId="1" state="visible" r:id="rId1"/>
@@ -100,7 +100,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -319,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -428,28 +428,16 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -462,13 +450,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -478,6 +466,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1275,8 +1266,8 @@
     <col width="2" customWidth="1" style="19" min="101" max="101"/>
     <col width="2" customWidth="1" style="20" min="102" max="148"/>
     <col width="2" customWidth="1" style="19" min="149" max="149"/>
-    <col width="2" customWidth="1" style="20" min="150" max="154"/>
-    <col width="2" customWidth="1" style="20" min="155" max="16384"/>
+    <col width="2" customWidth="1" style="20" min="150" max="155"/>
+    <col width="2" customWidth="1" style="20" min="156" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="11.1" customHeight="1">
@@ -23226,7 +23217,7 @@
   </sheetPr>
   <dimension ref="A1:FX192"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="AD18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -23243,8 +23234,8 @@
     <col width="2" customWidth="1" style="57" min="101" max="101"/>
     <col width="2" customWidth="1" style="56" min="102" max="148"/>
     <col width="2" customWidth="1" style="57" min="149" max="149"/>
-    <col width="2" customWidth="1" style="56" min="150" max="154"/>
-    <col width="2" customWidth="1" style="56" min="155" max="16384"/>
+    <col width="2" customWidth="1" style="56" min="150" max="155"/>
+    <col width="2" customWidth="1" style="56" min="156" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="11.1" customHeight="1">
@@ -45141,8 +45132,8 @@
     <col width="2" customWidth="1" style="6" min="101" max="101"/>
     <col width="2" customWidth="1" style="14" min="102" max="148"/>
     <col width="2" customWidth="1" style="6" min="149" max="149"/>
-    <col width="2" customWidth="1" style="14" min="150" max="154"/>
-    <col width="2" customWidth="1" style="14" min="155" max="16384"/>
+    <col width="2" customWidth="1" style="14" min="150" max="155"/>
+    <col width="2" customWidth="1" style="14" min="156" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="11.1" customHeight="1">
@@ -62917,7 +62908,7 @@
       </c>
     </row>
     <row r="2" ht="10.5" customHeight="1">
-      <c r="A2" s="79" t="inlineStr">
+      <c r="A2" s="75" t="inlineStr">
         <is>
           <t>J</t>
         </is>
@@ -62942,14 +62933,14 @@
       <c r="CL2" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="CM2" s="79" t="inlineStr">
+      <c r="CM2" s="75" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
     </row>
     <row r="3" ht="10.5" customHeight="1">
-      <c r="A3" s="80" t="n"/>
+      <c r="A3" s="76" t="n"/>
       <c r="B3" s="3" t="n">
         <v>18</v>
       </c>
@@ -62976,10 +62967,10 @@
       <c r="CL3" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="CM3" s="80" t="n"/>
+      <c r="CM3" s="76" t="n"/>
     </row>
     <row r="4" ht="10.5" customHeight="1">
-      <c r="A4" s="80" t="n"/>
+      <c r="A4" s="76" t="n"/>
       <c r="B4" s="3" t="n">
         <v>17</v>
       </c>
@@ -63006,10 +62997,10 @@
       <c r="CL4" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="CM4" s="80" t="n"/>
+      <c r="CM4" s="76" t="n"/>
     </row>
     <row r="5" ht="10.5" customHeight="1">
-      <c r="A5" s="80" t="n"/>
+      <c r="A5" s="76" t="n"/>
       <c r="B5" s="3" t="n">
         <v>16</v>
       </c>
@@ -63036,10 +63027,10 @@
       <c r="CL5" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="CM5" s="80" t="n"/>
+      <c r="CM5" s="76" t="n"/>
     </row>
     <row r="6" ht="10.5" customHeight="1">
-      <c r="A6" s="80" t="n"/>
+      <c r="A6" s="76" t="n"/>
       <c r="B6" s="3" t="n">
         <v>15</v>
       </c>
@@ -63066,10 +63057,10 @@
       <c r="CL6" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="CM6" s="80" t="n"/>
+      <c r="CM6" s="76" t="n"/>
     </row>
     <row r="7" ht="10.5" customHeight="1">
-      <c r="A7" s="80" t="n"/>
+      <c r="A7" s="76" t="n"/>
       <c r="B7" s="3" t="n">
         <v>14</v>
       </c>
@@ -63096,10 +63087,10 @@
       <c r="CL7" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="CM7" s="80" t="n"/>
+      <c r="CM7" s="76" t="n"/>
     </row>
     <row r="8" ht="10.5" customHeight="1">
-      <c r="A8" s="80" t="n"/>
+      <c r="A8" s="76" t="n"/>
       <c r="B8" s="3" t="n">
         <v>13</v>
       </c>
@@ -63126,10 +63117,10 @@
       <c r="CL8" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="CM8" s="80" t="n"/>
+      <c r="CM8" s="76" t="n"/>
     </row>
     <row r="9" ht="10.5" customHeight="1">
-      <c r="A9" s="80" t="n"/>
+      <c r="A9" s="76" t="n"/>
       <c r="B9" s="3" t="n">
         <v>12</v>
       </c>
@@ -63156,10 +63147,10 @@
       <c r="CL9" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="CM9" s="80" t="n"/>
+      <c r="CM9" s="76" t="n"/>
     </row>
     <row r="10" ht="10.5" customHeight="1">
-      <c r="A10" s="80" t="n"/>
+      <c r="A10" s="76" t="n"/>
       <c r="B10" s="3" t="n">
         <v>11</v>
       </c>
@@ -63186,10 +63177,10 @@
       <c r="CL10" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="CM10" s="80" t="n"/>
+      <c r="CM10" s="76" t="n"/>
     </row>
     <row r="11" ht="10.5" customHeight="1">
-      <c r="A11" s="80" t="n"/>
+      <c r="A11" s="76" t="n"/>
       <c r="B11" s="3" t="n">
         <v>10</v>
       </c>
@@ -63216,10 +63207,10 @@
       <c r="CL11" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="CM11" s="80" t="n"/>
+      <c r="CM11" s="76" t="n"/>
     </row>
     <row r="12" ht="10.5" customHeight="1">
-      <c r="A12" s="80" t="n"/>
+      <c r="A12" s="76" t="n"/>
       <c r="B12" s="3" t="n">
         <v>9</v>
       </c>
@@ -63246,10 +63237,10 @@
       <c r="CL12" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="CM12" s="80" t="n"/>
+      <c r="CM12" s="76" t="n"/>
     </row>
     <row r="13" ht="10.5" customHeight="1">
-      <c r="A13" s="80" t="n"/>
+      <c r="A13" s="76" t="n"/>
       <c r="B13" s="3" t="n">
         <v>8</v>
       </c>
@@ -63276,10 +63267,10 @@
       <c r="CL13" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="CM13" s="80" t="n"/>
+      <c r="CM13" s="76" t="n"/>
     </row>
     <row r="14" ht="10.5" customHeight="1">
-      <c r="A14" s="80" t="n"/>
+      <c r="A14" s="76" t="n"/>
       <c r="B14" s="3" t="n">
         <v>7</v>
       </c>
@@ -63306,10 +63297,10 @@
       <c r="CL14" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="CM14" s="80" t="n"/>
+      <c r="CM14" s="76" t="n"/>
     </row>
     <row r="15" ht="10.5" customHeight="1">
-      <c r="A15" s="80" t="n"/>
+      <c r="A15" s="76" t="n"/>
       <c r="B15" s="3" t="n">
         <v>6</v>
       </c>
@@ -63336,10 +63327,10 @@
       <c r="CL15" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="CM15" s="80" t="n"/>
+      <c r="CM15" s="76" t="n"/>
     </row>
     <row r="16" ht="10.5" customHeight="1">
-      <c r="A16" s="80" t="n"/>
+      <c r="A16" s="76" t="n"/>
       <c r="B16" s="3" t="n">
         <v>5</v>
       </c>
@@ -63366,10 +63357,10 @@
       <c r="CL16" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="CM16" s="80" t="n"/>
+      <c r="CM16" s="76" t="n"/>
     </row>
     <row r="17" ht="10.5" customHeight="1">
-      <c r="A17" s="80" t="n"/>
+      <c r="A17" s="76" t="n"/>
       <c r="B17" s="3" t="n">
         <v>4</v>
       </c>
@@ -63396,10 +63387,10 @@
       <c r="CL17" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="CM17" s="80" t="n"/>
+      <c r="CM17" s="76" t="n"/>
     </row>
     <row r="18" ht="10.5" customHeight="1">
-      <c r="A18" s="80" t="n"/>
+      <c r="A18" s="76" t="n"/>
       <c r="B18" s="3" t="n">
         <v>3</v>
       </c>
@@ -63426,10 +63417,10 @@
       <c r="CL18" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="CM18" s="80" t="n"/>
+      <c r="CM18" s="76" t="n"/>
     </row>
     <row r="19" ht="10.5" customHeight="1">
-      <c r="A19" s="80" t="n"/>
+      <c r="A19" s="76" t="n"/>
       <c r="B19" s="3" t="n">
         <v>2</v>
       </c>
@@ -63456,10 +63447,10 @@
       <c r="CL19" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="CM19" s="80" t="n"/>
+      <c r="CM19" s="76" t="n"/>
     </row>
     <row r="20" ht="10.5" customHeight="1">
-      <c r="A20" s="81" t="n"/>
+      <c r="A20" s="77" t="n"/>
       <c r="B20" s="3" t="n">
         <v>1</v>
       </c>
@@ -63486,7 +63477,7 @@
       <c r="CL20" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="CM20" s="81" t="n"/>
+      <c r="CM20" s="77" t="n"/>
     </row>
     <row r="21" ht="10.5" customHeight="1"/>
     <row r="22" ht="10.5" customHeight="1">
@@ -63552,7 +63543,7 @@
       </c>
     </row>
     <row r="23" ht="10.5" customHeight="1">
-      <c r="A23" s="79" t="inlineStr">
+      <c r="A23" s="75" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -63583,14 +63574,14 @@
       <c r="CL23" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="CM23" s="79" t="inlineStr">
+      <c r="CM23" s="75" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
     </row>
     <row r="24" ht="10.5" customHeight="1">
-      <c r="A24" s="80" t="n"/>
+      <c r="A24" s="76" t="n"/>
       <c r="B24" s="3" t="n">
         <v>18</v>
       </c>
@@ -63617,10 +63608,10 @@
       <c r="CL24" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="CM24" s="80" t="n"/>
+      <c r="CM24" s="76" t="n"/>
     </row>
     <row r="25" ht="10.5" customHeight="1">
-      <c r="A25" s="80" t="n"/>
+      <c r="A25" s="76" t="n"/>
       <c r="B25" s="3" t="n">
         <v>17</v>
       </c>
@@ -63647,10 +63638,10 @@
       <c r="CL25" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="CM25" s="80" t="n"/>
+      <c r="CM25" s="76" t="n"/>
     </row>
     <row r="26" ht="10.5" customHeight="1">
-      <c r="A26" s="80" t="n"/>
+      <c r="A26" s="76" t="n"/>
       <c r="B26" s="3" t="n">
         <v>16</v>
       </c>
@@ -63677,10 +63668,10 @@
       <c r="CL26" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="CM26" s="80" t="n"/>
+      <c r="CM26" s="76" t="n"/>
     </row>
     <row r="27" ht="10.5" customHeight="1">
-      <c r="A27" s="80" t="n"/>
+      <c r="A27" s="76" t="n"/>
       <c r="B27" s="3" t="n">
         <v>15</v>
       </c>
@@ -63707,10 +63698,10 @@
       <c r="CL27" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="CM27" s="80" t="n"/>
+      <c r="CM27" s="76" t="n"/>
     </row>
     <row r="28" ht="10.5" customHeight="1">
-      <c r="A28" s="80" t="n"/>
+      <c r="A28" s="76" t="n"/>
       <c r="B28" s="3" t="n">
         <v>14</v>
       </c>
@@ -63737,10 +63728,10 @@
       <c r="CL28" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="CM28" s="80" t="n"/>
+      <c r="CM28" s="76" t="n"/>
     </row>
     <row r="29" ht="10.5" customHeight="1">
-      <c r="A29" s="80" t="n"/>
+      <c r="A29" s="76" t="n"/>
       <c r="B29" s="3" t="n">
         <v>13</v>
       </c>
@@ -63767,10 +63758,10 @@
       <c r="CL29" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="CM29" s="80" t="n"/>
+      <c r="CM29" s="76" t="n"/>
     </row>
     <row r="30" ht="10.5" customHeight="1">
-      <c r="A30" s="80" t="n"/>
+      <c r="A30" s="76" t="n"/>
       <c r="B30" s="3" t="n">
         <v>12</v>
       </c>
@@ -63797,10 +63788,10 @@
       <c r="CL30" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="CM30" s="80" t="n"/>
+      <c r="CM30" s="76" t="n"/>
     </row>
     <row r="31" ht="10.5" customHeight="1">
-      <c r="A31" s="80" t="n"/>
+      <c r="A31" s="76" t="n"/>
       <c r="B31" s="3" t="n">
         <v>11</v>
       </c>
@@ -63827,10 +63818,10 @@
       <c r="CL31" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="CM31" s="80" t="n"/>
+      <c r="CM31" s="76" t="n"/>
     </row>
     <row r="32" ht="10.5" customHeight="1">
-      <c r="A32" s="80" t="n"/>
+      <c r="A32" s="76" t="n"/>
       <c r="B32" s="3" t="n">
         <v>10</v>
       </c>
@@ -63857,10 +63848,10 @@
       <c r="CL32" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="CM32" s="80" t="n"/>
+      <c r="CM32" s="76" t="n"/>
     </row>
     <row r="33" ht="10.5" customHeight="1">
-      <c r="A33" s="80" t="n"/>
+      <c r="A33" s="76" t="n"/>
       <c r="B33" s="3" t="n">
         <v>9</v>
       </c>
@@ -63887,10 +63878,10 @@
       <c r="CL33" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="CM33" s="80" t="n"/>
+      <c r="CM33" s="76" t="n"/>
     </row>
     <row r="34" ht="10.5" customHeight="1">
-      <c r="A34" s="80" t="n"/>
+      <c r="A34" s="76" t="n"/>
       <c r="B34" s="3" t="n">
         <v>8</v>
       </c>
@@ -63917,10 +63908,10 @@
       <c r="CL34" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="CM34" s="80" t="n"/>
+      <c r="CM34" s="76" t="n"/>
     </row>
     <row r="35" ht="10.5" customHeight="1">
-      <c r="A35" s="80" t="n"/>
+      <c r="A35" s="76" t="n"/>
       <c r="B35" s="3" t="n">
         <v>7</v>
       </c>
@@ -63947,10 +63938,10 @@
       <c r="CL35" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="CM35" s="80" t="n"/>
+      <c r="CM35" s="76" t="n"/>
     </row>
     <row r="36" ht="10.5" customHeight="1">
-      <c r="A36" s="80" t="n"/>
+      <c r="A36" s="76" t="n"/>
       <c r="B36" s="3" t="n">
         <v>6</v>
       </c>
@@ -63977,10 +63968,10 @@
       <c r="CL36" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="CM36" s="80" t="n"/>
+      <c r="CM36" s="76" t="n"/>
     </row>
     <row r="37" ht="10.5" customHeight="1">
-      <c r="A37" s="80" t="n"/>
+      <c r="A37" s="76" t="n"/>
       <c r="B37" s="3" t="n">
         <v>5</v>
       </c>
@@ -64007,10 +63998,10 @@
       <c r="CL37" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="CM37" s="80" t="n"/>
+      <c r="CM37" s="76" t="n"/>
     </row>
     <row r="38" ht="10.5" customHeight="1">
-      <c r="A38" s="80" t="n"/>
+      <c r="A38" s="76" t="n"/>
       <c r="B38" s="3" t="n">
         <v>4</v>
       </c>
@@ -64037,10 +64028,10 @@
       <c r="CL38" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="CM38" s="80" t="n"/>
+      <c r="CM38" s="76" t="n"/>
     </row>
     <row r="39" ht="10.5" customHeight="1">
-      <c r="A39" s="80" t="n"/>
+      <c r="A39" s="76" t="n"/>
       <c r="B39" s="3" t="n">
         <v>3</v>
       </c>
@@ -64067,10 +64058,10 @@
       <c r="CL39" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="CM39" s="80" t="n"/>
+      <c r="CM39" s="76" t="n"/>
     </row>
     <row r="40" ht="10.5" customHeight="1">
-      <c r="A40" s="80" t="n"/>
+      <c r="A40" s="76" t="n"/>
       <c r="B40" s="3" t="n">
         <v>2</v>
       </c>
@@ -64097,10 +64088,10 @@
       <c r="CL40" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="CM40" s="80" t="n"/>
+      <c r="CM40" s="76" t="n"/>
     </row>
     <row r="41" ht="10.5" customHeight="1">
-      <c r="A41" s="81" t="n"/>
+      <c r="A41" s="77" t="n"/>
       <c r="B41" s="3" t="n">
         <v>1</v>
       </c>
@@ -64127,7 +64118,7 @@
       <c r="CL41" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="CM41" s="81" t="n"/>
+      <c r="CM41" s="77" t="n"/>
     </row>
     <row r="42" ht="10.5" customHeight="1"/>
     <row r="43" ht="10.5" customHeight="1">
@@ -64193,7 +64184,7 @@
       </c>
     </row>
     <row r="44" ht="10.5" customHeight="1">
-      <c r="A44" s="79" t="inlineStr">
+      <c r="A44" s="75" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -64208,14 +64199,14 @@
       <c r="CL44" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="CM44" s="79" t="inlineStr">
+      <c r="CM44" s="75" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
     </row>
     <row r="45" ht="10.5" customHeight="1">
-      <c r="A45" s="80" t="n"/>
+      <c r="A45" s="76" t="n"/>
       <c r="B45" s="3" t="n">
         <v>16</v>
       </c>
@@ -64230,10 +64221,10 @@
       <c r="CL45" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="CM45" s="80" t="n"/>
+      <c r="CM45" s="76" t="n"/>
     </row>
     <row r="46" ht="10.5" customHeight="1">
-      <c r="A46" s="80" t="n"/>
+      <c r="A46" s="76" t="n"/>
       <c r="B46" s="3" t="n">
         <v>15</v>
       </c>
@@ -64252,10 +64243,10 @@
       <c r="CL46" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="CM46" s="80" t="n"/>
+      <c r="CM46" s="76" t="n"/>
     </row>
     <row r="47" ht="10.5" customHeight="1">
-      <c r="A47" s="80" t="n"/>
+      <c r="A47" s="76" t="n"/>
       <c r="B47" s="3" t="n">
         <v>14</v>
       </c>
@@ -64278,10 +64269,10 @@
       <c r="CL47" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="CM47" s="80" t="n"/>
+      <c r="CM47" s="76" t="n"/>
     </row>
     <row r="48" ht="10.5" customHeight="1">
-      <c r="A48" s="80" t="n"/>
+      <c r="A48" s="76" t="n"/>
       <c r="B48" s="3" t="n">
         <v>13</v>
       </c>
@@ -64306,10 +64297,10 @@
       <c r="CL48" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="CM48" s="80" t="n"/>
+      <c r="CM48" s="76" t="n"/>
     </row>
     <row r="49" ht="10.5" customHeight="1">
-      <c r="A49" s="80" t="n"/>
+      <c r="A49" s="76" t="n"/>
       <c r="B49" s="3" t="n">
         <v>12</v>
       </c>
@@ -64323,68 +64314,68 @@
       <c r="J49" s="4" t="n"/>
       <c r="K49" s="4" t="n"/>
       <c r="L49" s="4" t="n"/>
-      <c r="T49" s="76" t="inlineStr">
+      <c r="T49" s="72" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="U49" s="77" t="n"/>
-      <c r="V49" s="77" t="n"/>
-      <c r="W49" s="77" t="n"/>
-      <c r="X49" s="77" t="n"/>
-      <c r="Y49" s="77" t="n"/>
-      <c r="Z49" s="77" t="n"/>
-      <c r="AA49" s="77" t="n"/>
-      <c r="AB49" s="77" t="n"/>
-      <c r="AC49" s="77" t="n"/>
-      <c r="AD49" s="77" t="n"/>
-      <c r="AE49" s="77" t="n"/>
-      <c r="AF49" s="77" t="n"/>
-      <c r="AG49" s="77" t="n"/>
-      <c r="AH49" s="77" t="n"/>
-      <c r="AI49" s="77" t="n"/>
-      <c r="AJ49" s="77" t="n"/>
-      <c r="AK49" s="78" t="n"/>
-      <c r="AN49" s="76" t="inlineStr">
+      <c r="U49" s="73" t="n"/>
+      <c r="V49" s="73" t="n"/>
+      <c r="W49" s="73" t="n"/>
+      <c r="X49" s="73" t="n"/>
+      <c r="Y49" s="73" t="n"/>
+      <c r="Z49" s="73" t="n"/>
+      <c r="AA49" s="73" t="n"/>
+      <c r="AB49" s="73" t="n"/>
+      <c r="AC49" s="73" t="n"/>
+      <c r="AD49" s="73" t="n"/>
+      <c r="AE49" s="73" t="n"/>
+      <c r="AF49" s="73" t="n"/>
+      <c r="AG49" s="73" t="n"/>
+      <c r="AH49" s="73" t="n"/>
+      <c r="AI49" s="73" t="n"/>
+      <c r="AJ49" s="73" t="n"/>
+      <c r="AK49" s="74" t="n"/>
+      <c r="AN49" s="72" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="AO49" s="77" t="n"/>
-      <c r="AP49" s="77" t="n"/>
-      <c r="AQ49" s="77" t="n"/>
-      <c r="AR49" s="77" t="n"/>
-      <c r="AS49" s="77" t="n"/>
-      <c r="AT49" s="77" t="n"/>
-      <c r="AU49" s="77" t="n"/>
-      <c r="AV49" s="77" t="n"/>
-      <c r="AW49" s="77" t="n"/>
-      <c r="AX49" s="77" t="n"/>
-      <c r="AY49" s="77" t="n"/>
-      <c r="AZ49" s="77" t="n"/>
-      <c r="BA49" s="78" t="n"/>
-      <c r="BD49" s="76" t="inlineStr">
+      <c r="AO49" s="73" t="n"/>
+      <c r="AP49" s="73" t="n"/>
+      <c r="AQ49" s="73" t="n"/>
+      <c r="AR49" s="73" t="n"/>
+      <c r="AS49" s="73" t="n"/>
+      <c r="AT49" s="73" t="n"/>
+      <c r="AU49" s="73" t="n"/>
+      <c r="AV49" s="73" t="n"/>
+      <c r="AW49" s="73" t="n"/>
+      <c r="AX49" s="73" t="n"/>
+      <c r="AY49" s="73" t="n"/>
+      <c r="AZ49" s="73" t="n"/>
+      <c r="BA49" s="74" t="n"/>
+      <c r="BD49" s="72" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="BE49" s="77" t="n"/>
-      <c r="BF49" s="77" t="n"/>
-      <c r="BG49" s="77" t="n"/>
-      <c r="BH49" s="77" t="n"/>
-      <c r="BI49" s="77" t="n"/>
-      <c r="BJ49" s="77" t="n"/>
-      <c r="BK49" s="77" t="n"/>
-      <c r="BL49" s="77" t="n"/>
-      <c r="BM49" s="77" t="n"/>
-      <c r="BN49" s="77" t="n"/>
-      <c r="BO49" s="77" t="n"/>
-      <c r="BP49" s="77" t="n"/>
-      <c r="BQ49" s="77" t="n"/>
-      <c r="BR49" s="77" t="n"/>
-      <c r="BS49" s="77" t="n"/>
-      <c r="BT49" s="77" t="n"/>
-      <c r="BU49" s="78" t="n"/>
+      <c r="BE49" s="73" t="n"/>
+      <c r="BF49" s="73" t="n"/>
+      <c r="BG49" s="73" t="n"/>
+      <c r="BH49" s="73" t="n"/>
+      <c r="BI49" s="73" t="n"/>
+      <c r="BJ49" s="73" t="n"/>
+      <c r="BK49" s="73" t="n"/>
+      <c r="BL49" s="73" t="n"/>
+      <c r="BM49" s="73" t="n"/>
+      <c r="BN49" s="73" t="n"/>
+      <c r="BO49" s="73" t="n"/>
+      <c r="BP49" s="73" t="n"/>
+      <c r="BQ49" s="73" t="n"/>
+      <c r="BR49" s="73" t="n"/>
+      <c r="BS49" s="73" t="n"/>
+      <c r="BT49" s="73" t="n"/>
+      <c r="BU49" s="74" t="n"/>
       <c r="CB49" s="4" t="n"/>
       <c r="CC49" s="4" t="n"/>
       <c r="CD49" s="4" t="n"/>
@@ -64398,10 +64389,10 @@
       <c r="CL49" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="CM49" s="80" t="n"/>
+      <c r="CM49" s="76" t="n"/>
     </row>
     <row r="50" ht="10.5" customHeight="1">
-      <c r="A50" s="80" t="n"/>
+      <c r="A50" s="76" t="n"/>
       <c r="B50" s="3" t="n">
         <v>11</v>
       </c>
@@ -64578,10 +64569,10 @@
       <c r="CL50" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="CM50" s="80" t="n"/>
+      <c r="CM50" s="76" t="n"/>
     </row>
     <row r="51" ht="10.5" customHeight="1">
-      <c r="A51" s="80" t="n"/>
+      <c r="A51" s="76" t="n"/>
       <c r="B51" s="3" t="n">
         <v>10</v>
       </c>
@@ -64667,10 +64658,10 @@
       <c r="CL51" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="CM51" s="80" t="n"/>
+      <c r="CM51" s="76" t="n"/>
     </row>
     <row r="52" ht="10.5" customHeight="1">
-      <c r="A52" s="80" t="n"/>
+      <c r="A52" s="76" t="n"/>
       <c r="B52" s="3" t="n">
         <v>9</v>
       </c>
@@ -64756,10 +64747,10 @@
       <c r="CL52" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="CM52" s="80" t="n"/>
+      <c r="CM52" s="76" t="n"/>
     </row>
     <row r="53" ht="10.5" customHeight="1">
-      <c r="A53" s="80" t="n"/>
+      <c r="A53" s="76" t="n"/>
       <c r="B53" s="3" t="n">
         <v>8</v>
       </c>
@@ -64845,10 +64836,10 @@
       <c r="CL53" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="CM53" s="80" t="n"/>
+      <c r="CM53" s="76" t="n"/>
     </row>
     <row r="54" ht="10.5" customHeight="1">
-      <c r="A54" s="80" t="n"/>
+      <c r="A54" s="76" t="n"/>
       <c r="B54" s="3" t="n">
         <v>7</v>
       </c>
@@ -64934,10 +64925,10 @@
       <c r="CL54" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="CM54" s="80" t="n"/>
+      <c r="CM54" s="76" t="n"/>
     </row>
     <row r="55" ht="10.5" customHeight="1">
-      <c r="A55" s="80" t="n"/>
+      <c r="A55" s="76" t="n"/>
       <c r="B55" s="3" t="n">
         <v>6</v>
       </c>
@@ -65023,10 +65014,10 @@
       <c r="CL55" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="CM55" s="80" t="n"/>
+      <c r="CM55" s="76" t="n"/>
     </row>
     <row r="56" ht="10.5" customHeight="1">
-      <c r="A56" s="80" t="n"/>
+      <c r="A56" s="76" t="n"/>
       <c r="B56" s="3" t="n">
         <v>5</v>
       </c>
@@ -65112,10 +65103,10 @@
       <c r="CL56" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="CM56" s="80" t="n"/>
+      <c r="CM56" s="76" t="n"/>
     </row>
     <row r="57" ht="10.5" customHeight="1">
-      <c r="A57" s="80" t="n"/>
+      <c r="A57" s="76" t="n"/>
       <c r="B57" s="3" t="n">
         <v>4</v>
       </c>
@@ -65184,10 +65175,10 @@
       <c r="CL57" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="CM57" s="80" t="n"/>
+      <c r="CM57" s="76" t="n"/>
     </row>
     <row r="58" ht="10.5" customHeight="1">
-      <c r="A58" s="80" t="n"/>
+      <c r="A58" s="76" t="n"/>
       <c r="B58" s="3" t="n">
         <v>3</v>
       </c>
@@ -65256,10 +65247,10 @@
       <c r="CL58" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="CM58" s="80" t="n"/>
+      <c r="CM58" s="76" t="n"/>
     </row>
     <row r="59" ht="10.5" customHeight="1">
-      <c r="A59" s="80" t="n"/>
+      <c r="A59" s="76" t="n"/>
       <c r="B59" s="3" t="n">
         <v>2</v>
       </c>
@@ -65328,10 +65319,10 @@
       <c r="CL59" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="CM59" s="80" t="n"/>
+      <c r="CM59" s="76" t="n"/>
     </row>
     <row r="60" ht="10.5" customHeight="1">
-      <c r="A60" s="81" t="n"/>
+      <c r="A60" s="77" t="n"/>
       <c r="B60" s="3" t="n">
         <v>1</v>
       </c>
@@ -65400,7 +65391,7 @@
       <c r="CL60" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="CM60" s="81" t="n"/>
+      <c r="CM60" s="77" t="n"/>
     </row>
     <row r="61" ht="10.5" customHeight="1"/>
     <row r="62" ht="10.5" customHeight="1"/>
@@ -65480,8 +65471,8 @@
     <col width="2" customWidth="1" style="57" min="101" max="101"/>
     <col width="2" customWidth="1" style="56" min="102" max="148"/>
     <col width="2" customWidth="1" style="57" min="149" max="149"/>
-    <col width="2" customWidth="1" style="56" min="150" max="154"/>
-    <col width="2" customWidth="1" style="56" min="155" max="16384"/>
+    <col width="2" customWidth="1" style="56" min="150" max="155"/>
+    <col width="2" customWidth="1" style="56" min="156" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="11.1" customHeight="1">
@@ -66207,7 +66198,7 @@
       <c r="BD15" s="56" t="n">
         <v>2</v>
       </c>
-      <c r="BG15" s="82" t="inlineStr">
+      <c r="BG15" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66222,7 +66213,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BJ15" s="83" t="inlineStr">
+      <c r="BJ15" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66237,7 +66228,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BM15" s="83" t="inlineStr">
+      <c r="BM15" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66252,7 +66243,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BP15" s="83" t="inlineStr">
+      <c r="BP15" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66267,7 +66258,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BS15" s="83" t="inlineStr">
+      <c r="BS15" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66282,7 +66273,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BV15" s="83" t="inlineStr">
+      <c r="BV15" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66297,7 +66288,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BY15" s="83" t="inlineStr">
+      <c r="BY15" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66312,7 +66303,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CB15" s="83" t="inlineStr">
+      <c r="CB15" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66327,7 +66318,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CE15" s="83" t="inlineStr">
+      <c r="CE15" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66342,7 +66333,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CH15" s="83" t="inlineStr">
+      <c r="CH15" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66357,7 +66348,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CK15" s="83" t="inlineStr">
+      <c r="CK15" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66372,7 +66363,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CN15" s="83" t="inlineStr">
+      <c r="CN15" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66399,7 +66390,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DE15" s="83" t="inlineStr">
+      <c r="DE15" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66414,7 +66405,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DH15" s="83" t="inlineStr">
+      <c r="DH15" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66429,7 +66420,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DK15" s="83" t="inlineStr">
+      <c r="DK15" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66444,7 +66435,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DN15" s="83" t="inlineStr">
+      <c r="DN15" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66459,7 +66450,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DQ15" s="83" t="inlineStr">
+      <c r="DQ15" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66474,7 +66465,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DT15" s="83" t="inlineStr">
+      <c r="DT15" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66489,7 +66480,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DW15" s="83" t="inlineStr">
+      <c r="DW15" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66504,7 +66495,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DZ15" s="83" t="inlineStr">
+      <c r="DZ15" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66519,7 +66510,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EC15" s="83" t="inlineStr">
+      <c r="EC15" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66534,7 +66525,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EF15" s="83" t="inlineStr">
+      <c r="EF15" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66549,7 +66540,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EI15" s="83" t="inlineStr">
+      <c r="EI15" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66678,7 +66669,7 @@
       <c r="BD17" s="56" t="n">
         <v>3</v>
       </c>
-      <c r="BG17" s="82" t="inlineStr">
+      <c r="BG17" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66693,7 +66684,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BJ17" s="83" t="inlineStr">
+      <c r="BJ17" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66708,7 +66699,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BM17" s="83" t="inlineStr">
+      <c r="BM17" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66723,7 +66714,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BP17" s="83" t="inlineStr">
+      <c r="BP17" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66738,7 +66729,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BS17" s="83" t="inlineStr">
+      <c r="BS17" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66753,7 +66744,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BV17" s="83" t="inlineStr">
+      <c r="BV17" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66768,7 +66759,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BY17" s="83" t="inlineStr">
+      <c r="BY17" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66783,7 +66774,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CB17" s="83" t="inlineStr">
+      <c r="CB17" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66798,7 +66789,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CE17" s="83" t="inlineStr">
+      <c r="CE17" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66813,7 +66804,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CH17" s="83" t="inlineStr">
+      <c r="CH17" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66828,7 +66819,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CK17" s="83" t="inlineStr">
+      <c r="CK17" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66843,7 +66834,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CN17" s="83" t="inlineStr">
+      <c r="CN17" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66870,7 +66861,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DE17" s="83" t="inlineStr">
+      <c r="DE17" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66885,7 +66876,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DH17" s="83" t="inlineStr">
+      <c r="DH17" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66900,7 +66891,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DK17" s="83" t="inlineStr">
+      <c r="DK17" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66915,7 +66906,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DN17" s="83" t="inlineStr">
+      <c r="DN17" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66930,7 +66921,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DQ17" s="83" t="inlineStr">
+      <c r="DQ17" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66945,7 +66936,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DT17" s="83" t="inlineStr">
+      <c r="DT17" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66960,7 +66951,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DW17" s="83" t="inlineStr">
+      <c r="DW17" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66975,7 +66966,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DZ17" s="83" t="inlineStr">
+      <c r="DZ17" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -66990,7 +66981,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EC17" s="83" t="inlineStr">
+      <c r="EC17" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67005,7 +66996,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EF17" s="83" t="inlineStr">
+      <c r="EF17" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67020,7 +67011,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EI17" s="83" t="inlineStr">
+      <c r="EI17" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67074,7 +67065,7 @@
       <c r="BD19" s="56" t="n">
         <v>4</v>
       </c>
-      <c r="BG19" s="82" t="inlineStr">
+      <c r="BG19" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67089,7 +67080,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BJ19" s="83" t="inlineStr">
+      <c r="BJ19" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67104,7 +67095,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BM19" s="83" t="inlineStr">
+      <c r="BM19" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67119,7 +67110,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BP19" s="83" t="inlineStr">
+      <c r="BP19" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67134,7 +67125,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BS19" s="83" t="inlineStr">
+      <c r="BS19" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67149,7 +67140,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BV19" s="83" t="inlineStr">
+      <c r="BV19" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67164,7 +67155,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BY19" s="83" t="inlineStr">
+      <c r="BY19" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67179,7 +67170,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CB19" s="83" t="inlineStr">
+      <c r="CB19" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67194,7 +67185,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CE19" s="83" t="inlineStr">
+      <c r="CE19" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67209,7 +67200,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CH19" s="83" t="inlineStr">
+      <c r="CH19" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67224,7 +67215,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CK19" s="83" t="inlineStr">
+      <c r="CK19" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67239,7 +67230,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CN19" s="83" t="inlineStr">
+      <c r="CN19" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67266,7 +67257,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DE19" s="83" t="inlineStr">
+      <c r="DE19" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67281,7 +67272,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DH19" s="83" t="inlineStr">
+      <c r="DH19" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67296,7 +67287,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DK19" s="83" t="inlineStr">
+      <c r="DK19" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67311,7 +67302,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DN19" s="83" t="inlineStr">
+      <c r="DN19" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67326,7 +67317,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DQ19" s="83" t="inlineStr">
+      <c r="DQ19" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67341,7 +67332,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DT19" s="83" t="inlineStr">
+      <c r="DT19" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67356,7 +67347,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DW19" s="83" t="inlineStr">
+      <c r="DW19" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67371,7 +67362,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DZ19" s="83" t="inlineStr">
+      <c r="DZ19" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67386,7 +67377,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EC19" s="83" t="inlineStr">
+      <c r="EC19" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67401,7 +67392,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EF19" s="83" t="inlineStr">
+      <c r="EF19" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67416,7 +67407,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EI19" s="83" t="inlineStr">
+      <c r="EI19" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67594,7 +67585,7 @@
       <c r="BD21" s="56" t="n">
         <v>5</v>
       </c>
-      <c r="BG21" s="82" t="inlineStr">
+      <c r="BG21" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67609,7 +67600,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BJ21" s="83" t="inlineStr">
+      <c r="BJ21" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67624,7 +67615,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BM21" s="83" t="inlineStr">
+      <c r="BM21" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67639,7 +67630,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BP21" s="83" t="inlineStr">
+      <c r="BP21" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67654,7 +67645,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BS21" s="83" t="inlineStr">
+      <c r="BS21" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67669,7 +67660,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BV21" s="83" t="inlineStr">
+      <c r="BV21" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67684,7 +67675,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BY21" s="83" t="inlineStr">
+      <c r="BY21" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67699,7 +67690,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CB21" s="83" t="inlineStr">
+      <c r="CB21" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67714,7 +67705,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CE21" s="83" t="inlineStr">
+      <c r="CE21" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67729,7 +67720,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CH21" s="83" t="inlineStr">
+      <c r="CH21" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67744,7 +67735,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CK21" s="83" t="inlineStr">
+      <c r="CK21" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67759,7 +67750,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CN21" s="83" t="inlineStr">
+      <c r="CN21" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67774,7 +67765,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CQ21" s="83" t="inlineStr">
+      <c r="CQ21" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67791,7 +67782,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DB21" s="83" t="inlineStr">
+      <c r="DB21" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67806,7 +67797,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DE21" s="83" t="inlineStr">
+      <c r="DE21" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67821,7 +67812,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DH21" s="83" t="inlineStr">
+      <c r="DH21" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67836,7 +67827,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DK21" s="83" t="inlineStr">
+      <c r="DK21" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67851,7 +67842,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DN21" s="83" t="inlineStr">
+      <c r="DN21" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67866,7 +67857,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DQ21" s="83" t="inlineStr">
+      <c r="DQ21" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67881,7 +67872,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DT21" s="83" t="inlineStr">
+      <c r="DT21" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67896,7 +67887,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DW21" s="83" t="inlineStr">
+      <c r="DW21" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67911,7 +67902,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DZ21" s="83" t="inlineStr">
+      <c r="DZ21" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67926,7 +67917,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EC21" s="83" t="inlineStr">
+      <c r="EC21" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67941,7 +67932,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EF21" s="83" t="inlineStr">
+      <c r="EF21" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -67956,7 +67947,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EI21" s="83" t="inlineStr">
+      <c r="EI21" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -68212,7 +68203,7 @@
       <c r="BD23" s="56" t="n">
         <v>6</v>
       </c>
-      <c r="BG23" s="82" t="inlineStr">
+      <c r="BG23" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -68227,7 +68218,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BJ23" s="83" t="inlineStr">
+      <c r="BJ23" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -68242,7 +68233,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BM23" s="83" t="inlineStr">
+      <c r="BM23" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -68257,7 +68248,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BP23" s="83" t="inlineStr">
+      <c r="BP23" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -68272,7 +68263,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BS23" s="83" t="inlineStr">
+      <c r="BS23" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -68287,7 +68278,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BV23" s="83" t="inlineStr">
+      <c r="BV23" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -68302,7 +68293,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BY23" s="83" t="inlineStr">
+      <c r="BY23" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -68317,7 +68308,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CB23" s="83" t="inlineStr">
+      <c r="CB23" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -68332,7 +68323,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CE23" s="83" t="inlineStr">
+      <c r="CE23" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -68347,7 +68338,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CH23" s="83" t="inlineStr">
+      <c r="CH23" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -68362,7 +68353,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CK23" s="83" t="inlineStr">
+      <c r="CK23" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -68377,7 +68368,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CN23" s="83" t="inlineStr">
+      <c r="CN23" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -68392,7 +68383,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CQ23" s="83" t="inlineStr">
+      <c r="CQ23" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -68409,7 +68400,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DB23" s="83" t="inlineStr">
+      <c r="DB23" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -68424,7 +68415,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DE23" s="83" t="inlineStr">
+      <c r="DE23" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -68439,7 +68430,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DH23" s="83" t="inlineStr">
+      <c r="DH23" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -68454,7 +68445,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DK23" s="83" t="inlineStr">
+      <c r="DK23" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -68469,7 +68460,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DN23" s="83" t="inlineStr">
+      <c r="DN23" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -68484,7 +68475,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DQ23" s="83" t="inlineStr">
+      <c r="DQ23" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -68499,7 +68490,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DT23" s="83" t="inlineStr">
+      <c r="DT23" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -68514,7 +68505,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DW23" s="83" t="inlineStr">
+      <c r="DW23" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -68529,7 +68520,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DZ23" s="83" t="inlineStr">
+      <c r="DZ23" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -68544,7 +68535,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EC23" s="83" t="inlineStr">
+      <c r="EC23" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -68559,7 +68550,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EF23" s="83" t="inlineStr">
+      <c r="EF23" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -68574,7 +68565,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EI23" s="83" t="inlineStr">
+      <c r="EI23" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -68838,7 +68829,7 @@
       <c r="BD25" s="56" t="n">
         <v>7</v>
       </c>
-      <c r="BG25" s="82" t="inlineStr">
+      <c r="BG25" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -68853,7 +68844,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BJ25" s="83" t="inlineStr">
+      <c r="BJ25" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -68868,7 +68859,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BM25" s="83" t="inlineStr">
+      <c r="BM25" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -68883,7 +68874,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BP25" s="83" t="inlineStr">
+      <c r="BP25" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -68898,7 +68889,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BS25" s="83" t="inlineStr">
+      <c r="BS25" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -68913,7 +68904,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BV25" s="83" t="inlineStr">
+      <c r="BV25" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -68928,7 +68919,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BY25" s="83" t="inlineStr">
+      <c r="BY25" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -68943,7 +68934,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CB25" s="83" t="inlineStr">
+      <c r="CB25" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -68958,7 +68949,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CE25" s="83" t="inlineStr">
+      <c r="CE25" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -68973,7 +68964,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CH25" s="83" t="inlineStr">
+      <c r="CH25" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -68988,7 +68979,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CK25" s="83" t="inlineStr">
+      <c r="CK25" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -69003,7 +68994,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CN25" s="83" t="inlineStr">
+      <c r="CN25" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -69018,7 +69009,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CQ25" s="83" t="inlineStr">
+      <c r="CQ25" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -69038,7 +69029,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CY25" s="82" t="inlineStr">
+      <c r="CY25" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -69053,7 +69044,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DB25" s="83" t="inlineStr">
+      <c r="DB25" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -69068,7 +69059,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DE25" s="83" t="inlineStr">
+      <c r="DE25" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -69083,7 +69074,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DH25" s="83" t="inlineStr">
+      <c r="DH25" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -69098,7 +69089,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DK25" s="83" t="inlineStr">
+      <c r="DK25" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -69113,7 +69104,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DN25" s="83" t="inlineStr">
+      <c r="DN25" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -69128,7 +69119,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DQ25" s="83" t="inlineStr">
+      <c r="DQ25" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -69143,7 +69134,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DT25" s="83" t="inlineStr">
+      <c r="DT25" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -69158,7 +69149,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DW25" s="83" t="inlineStr">
+      <c r="DW25" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -69173,7 +69164,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DZ25" s="83" t="inlineStr">
+      <c r="DZ25" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -69188,7 +69179,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EC25" s="83" t="inlineStr">
+      <c r="EC25" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -69203,7 +69194,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EF25" s="83" t="inlineStr">
+      <c r="EF25" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -69218,7 +69209,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EI25" s="83" t="inlineStr">
+      <c r="EI25" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -69482,7 +69473,7 @@
       <c r="BD27" s="56" t="n">
         <v>8</v>
       </c>
-      <c r="BG27" s="82" t="inlineStr">
+      <c r="BG27" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -69497,7 +69488,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BJ27" s="83" t="inlineStr">
+      <c r="BJ27" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -69512,7 +69503,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BM27" s="83" t="inlineStr">
+      <c r="BM27" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -69527,7 +69518,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BP27" s="83" t="inlineStr">
+      <c r="BP27" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -69542,7 +69533,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BS27" s="83" t="inlineStr">
+      <c r="BS27" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -69557,7 +69548,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BV27" s="83" t="inlineStr">
+      <c r="BV27" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -69572,7 +69563,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BY27" s="83" t="inlineStr">
+      <c r="BY27" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -69587,7 +69578,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CB27" s="83" t="inlineStr">
+      <c r="CB27" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -69602,7 +69593,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CE27" s="83" t="inlineStr">
+      <c r="CE27" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -69617,7 +69608,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CH27" s="83" t="inlineStr">
+      <c r="CH27" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -69632,7 +69623,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CK27" s="83" t="inlineStr">
+      <c r="CK27" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -69647,7 +69638,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CN27" s="83" t="inlineStr">
+      <c r="CN27" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -69662,7 +69653,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CQ27" s="83" t="inlineStr">
+      <c r="CQ27" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -69682,7 +69673,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CY27" s="82" t="inlineStr">
+      <c r="CY27" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -69697,7 +69688,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DB27" s="83" t="inlineStr">
+      <c r="DB27" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -69712,7 +69703,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DE27" s="83" t="inlineStr">
+      <c r="DE27" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -69727,7 +69718,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DH27" s="83" t="inlineStr">
+      <c r="DH27" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -69742,7 +69733,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DK27" s="83" t="inlineStr">
+      <c r="DK27" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -69757,7 +69748,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DN27" s="83" t="inlineStr">
+      <c r="DN27" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -69772,7 +69763,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DQ27" s="83" t="inlineStr">
+      <c r="DQ27" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -69787,7 +69778,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DT27" s="83" t="inlineStr">
+      <c r="DT27" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -69802,7 +69793,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DW27" s="83" t="inlineStr">
+      <c r="DW27" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -69817,7 +69808,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DZ27" s="83" t="inlineStr">
+      <c r="DZ27" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -69832,7 +69823,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EC27" s="83" t="inlineStr">
+      <c r="EC27" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -69847,7 +69838,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EF27" s="83" t="inlineStr">
+      <c r="EF27" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -69862,7 +69853,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EI27" s="83" t="inlineStr">
+      <c r="EI27" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -70126,7 +70117,7 @@
       <c r="BD29" s="56" t="n">
         <v>9</v>
       </c>
-      <c r="BG29" s="82" t="inlineStr">
+      <c r="BG29" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -70141,7 +70132,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BJ29" s="83" t="inlineStr">
+      <c r="BJ29" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -70156,7 +70147,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BM29" s="83" t="inlineStr">
+      <c r="BM29" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -70171,7 +70162,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BP29" s="83" t="inlineStr">
+      <c r="BP29" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -70186,7 +70177,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BS29" s="83" t="inlineStr">
+      <c r="BS29" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -70201,7 +70192,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BV29" s="83" t="inlineStr">
+      <c r="BV29" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -70216,7 +70207,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BY29" s="83" t="inlineStr">
+      <c r="BY29" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -70231,7 +70222,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CB29" s="83" t="inlineStr">
+      <c r="CB29" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -70246,7 +70237,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CE29" s="83" t="inlineStr">
+      <c r="CE29" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -70261,7 +70252,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CH29" s="83" t="inlineStr">
+      <c r="CH29" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -70276,7 +70267,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CK29" s="83" t="inlineStr">
+      <c r="CK29" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -70291,7 +70282,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CN29" s="83" t="inlineStr">
+      <c r="CN29" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -70306,7 +70297,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CQ29" s="83" t="inlineStr">
+      <c r="CQ29" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -70326,7 +70317,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CY29" s="82" t="inlineStr">
+      <c r="CY29" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -70341,7 +70332,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DB29" s="83" t="inlineStr">
+      <c r="DB29" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -70356,7 +70347,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DE29" s="83" t="inlineStr">
+      <c r="DE29" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -70371,7 +70362,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DH29" s="83" t="inlineStr">
+      <c r="DH29" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -70386,7 +70377,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DK29" s="83" t="inlineStr">
+      <c r="DK29" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -70401,7 +70392,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DN29" s="83" t="inlineStr">
+      <c r="DN29" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -70416,7 +70407,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DQ29" s="83" t="inlineStr">
+      <c r="DQ29" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -70431,7 +70422,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DT29" s="83" t="inlineStr">
+      <c r="DT29" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -70446,7 +70437,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DW29" s="83" t="inlineStr">
+      <c r="DW29" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -70461,7 +70452,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DZ29" s="83" t="inlineStr">
+      <c r="DZ29" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -70476,7 +70467,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EC29" s="83" t="inlineStr">
+      <c r="EC29" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -70491,7 +70482,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EF29" s="83" t="inlineStr">
+      <c r="EF29" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -70506,7 +70497,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EI29" s="83" t="inlineStr">
+      <c r="EI29" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -70770,7 +70761,7 @@
       <c r="BD31" s="56" t="n">
         <v>10</v>
       </c>
-      <c r="BG31" s="82" t="inlineStr">
+      <c r="BG31" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -70785,7 +70776,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BJ31" s="83" t="inlineStr">
+      <c r="BJ31" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -70800,7 +70791,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BM31" s="83" t="inlineStr">
+      <c r="BM31" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -70815,7 +70806,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BP31" s="83" t="inlineStr">
+      <c r="BP31" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -70830,7 +70821,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BS31" s="83" t="inlineStr">
+      <c r="BS31" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -70845,7 +70836,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BV31" s="83" t="inlineStr">
+      <c r="BV31" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -70860,7 +70851,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BY31" s="83" t="inlineStr">
+      <c r="BY31" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -70875,7 +70866,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CB31" s="83" t="inlineStr">
+      <c r="CB31" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -70890,7 +70881,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CE31" s="83" t="inlineStr">
+      <c r="CE31" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -70905,7 +70896,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CH31" s="83" t="inlineStr">
+      <c r="CH31" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -70920,7 +70911,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CK31" s="83" t="inlineStr">
+      <c r="CK31" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -70935,7 +70926,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CN31" s="83" t="inlineStr">
+      <c r="CN31" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -70950,7 +70941,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CQ31" s="83" t="inlineStr">
+      <c r="CQ31" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -70970,7 +70961,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CY31" s="82" t="inlineStr">
+      <c r="CY31" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -70985,7 +70976,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DB31" s="83" t="inlineStr">
+      <c r="DB31" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -71000,7 +70991,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DE31" s="83" t="inlineStr">
+      <c r="DE31" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -71015,7 +71006,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DH31" s="83" t="inlineStr">
+      <c r="DH31" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -71030,7 +71021,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DK31" s="83" t="inlineStr">
+      <c r="DK31" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -71045,7 +71036,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DN31" s="83" t="inlineStr">
+      <c r="DN31" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -71060,7 +71051,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DQ31" s="83" t="inlineStr">
+      <c r="DQ31" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -71075,7 +71066,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DT31" s="83" t="inlineStr">
+      <c r="DT31" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -71090,7 +71081,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DW31" s="83" t="inlineStr">
+      <c r="DW31" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -71105,7 +71096,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DZ31" s="83" t="inlineStr">
+      <c r="DZ31" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -71120,7 +71111,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EC31" s="83" t="inlineStr">
+      <c r="EC31" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -71135,7 +71126,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EF31" s="83" t="inlineStr">
+      <c r="EF31" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -71150,7 +71141,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EI31" s="83" t="inlineStr">
+      <c r="EI31" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -71494,7 +71485,7 @@
       <c r="BD33" s="56" t="n">
         <v>11</v>
       </c>
-      <c r="BG33" s="82" t="inlineStr">
+      <c r="BG33" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -71509,7 +71500,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BJ33" s="83" t="inlineStr">
+      <c r="BJ33" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -71524,7 +71515,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BM33" s="83" t="inlineStr">
+      <c r="BM33" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -71539,7 +71530,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BP33" s="83" t="inlineStr">
+      <c r="BP33" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -71554,7 +71545,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BS33" s="83" t="inlineStr">
+      <c r="BS33" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -71569,7 +71560,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BV33" s="83" t="inlineStr">
+      <c r="BV33" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -71584,7 +71575,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BY33" s="83" t="inlineStr">
+      <c r="BY33" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -71599,7 +71590,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CB33" s="83" t="inlineStr">
+      <c r="CB33" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -71614,7 +71605,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CE33" s="83" t="inlineStr">
+      <c r="CE33" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -71629,7 +71620,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CH33" s="83" t="inlineStr">
+      <c r="CH33" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -71644,7 +71635,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CK33" s="83" t="inlineStr">
+      <c r="CK33" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -71659,7 +71650,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CN33" s="83" t="inlineStr">
+      <c r="CN33" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -71674,7 +71665,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CQ33" s="83" t="inlineStr">
+      <c r="CQ33" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -71694,7 +71685,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CY33" s="82" t="inlineStr">
+      <c r="CY33" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -71709,7 +71700,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DB33" s="83" t="inlineStr">
+      <c r="DB33" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -71724,7 +71715,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DE33" s="83" t="inlineStr">
+      <c r="DE33" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -71739,7 +71730,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DH33" s="83" t="inlineStr">
+      <c r="DH33" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -71754,7 +71745,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DK33" s="83" t="inlineStr">
+      <c r="DK33" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -71769,7 +71760,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DN33" s="83" t="inlineStr">
+      <c r="DN33" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -71784,7 +71775,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DQ33" s="83" t="inlineStr">
+      <c r="DQ33" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -71799,7 +71790,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DT33" s="83" t="inlineStr">
+      <c r="DT33" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -71814,7 +71805,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DW33" s="83" t="inlineStr">
+      <c r="DW33" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -71829,7 +71820,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DZ33" s="83" t="inlineStr">
+      <c r="DZ33" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -71844,7 +71835,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EC33" s="83" t="inlineStr">
+      <c r="EC33" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -71859,7 +71850,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EF33" s="83" t="inlineStr">
+      <c r="EF33" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -71874,7 +71865,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EI33" s="83" t="inlineStr">
+      <c r="EI33" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -72135,7 +72126,7 @@
       <c r="BD35" s="56" t="n">
         <v>12</v>
       </c>
-      <c r="BG35" s="82" t="inlineStr">
+      <c r="BG35" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -72150,7 +72141,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BJ35" s="83" t="inlineStr">
+      <c r="BJ35" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -72165,7 +72156,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BM35" s="83" t="inlineStr">
+      <c r="BM35" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -72180,7 +72171,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BP35" s="83" t="inlineStr">
+      <c r="BP35" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -72195,7 +72186,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BS35" s="83" t="inlineStr">
+      <c r="BS35" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -72210,7 +72201,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BV35" s="83" t="inlineStr">
+      <c r="BV35" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -72225,7 +72216,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BY35" s="83" t="inlineStr">
+      <c r="BY35" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -72240,7 +72231,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CB35" s="83" t="inlineStr">
+      <c r="CB35" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -72255,7 +72246,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CE35" s="83" t="inlineStr">
+      <c r="CE35" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -72270,7 +72261,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CH35" s="83" t="inlineStr">
+      <c r="CH35" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -72285,7 +72276,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CK35" s="83" t="inlineStr">
+      <c r="CK35" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -72300,7 +72291,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CN35" s="83" t="inlineStr">
+      <c r="CN35" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -72315,7 +72306,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CQ35" s="83" t="inlineStr">
+      <c r="CQ35" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -72335,7 +72326,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CY35" s="82" t="inlineStr">
+      <c r="CY35" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -72350,7 +72341,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DB35" s="83" t="inlineStr">
+      <c r="DB35" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -72365,7 +72356,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DE35" s="83" t="inlineStr">
+      <c r="DE35" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -72380,7 +72371,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DH35" s="83" t="inlineStr">
+      <c r="DH35" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -72395,7 +72386,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DK35" s="83" t="inlineStr">
+      <c r="DK35" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -72410,7 +72401,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DN35" s="83" t="inlineStr">
+      <c r="DN35" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -72425,7 +72416,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DQ35" s="83" t="inlineStr">
+      <c r="DQ35" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -72440,7 +72431,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DT35" s="83" t="inlineStr">
+      <c r="DT35" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -72455,7 +72446,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DW35" s="83" t="inlineStr">
+      <c r="DW35" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -72470,7 +72461,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DZ35" s="83" t="inlineStr">
+      <c r="DZ35" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -72485,7 +72476,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EC35" s="83" t="inlineStr">
+      <c r="EC35" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -72500,7 +72491,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EF35" s="83" t="inlineStr">
+      <c r="EF35" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -72515,7 +72506,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EI35" s="83" t="inlineStr">
+      <c r="EI35" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -72779,7 +72770,7 @@
       <c r="BD37" s="56" t="n">
         <v>13</v>
       </c>
-      <c r="BG37" s="82" t="inlineStr">
+      <c r="BG37" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -72794,7 +72785,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BJ37" s="83" t="inlineStr">
+      <c r="BJ37" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -72809,7 +72800,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BM37" s="83" t="inlineStr">
+      <c r="BM37" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -72824,7 +72815,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BP37" s="83" t="inlineStr">
+      <c r="BP37" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -72839,7 +72830,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BS37" s="83" t="inlineStr">
+      <c r="BS37" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -72854,7 +72845,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BV37" s="83" t="inlineStr">
+      <c r="BV37" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -72869,7 +72860,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BY37" s="83" t="inlineStr">
+      <c r="BY37" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -72884,7 +72875,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CB37" s="83" t="inlineStr">
+      <c r="CB37" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -72899,7 +72890,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CE37" s="83" t="inlineStr">
+      <c r="CE37" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -72914,7 +72905,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CH37" s="83" t="inlineStr">
+      <c r="CH37" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -72929,7 +72920,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CK37" s="83" t="inlineStr">
+      <c r="CK37" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -72944,7 +72935,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CN37" s="83" t="inlineStr">
+      <c r="CN37" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -72959,7 +72950,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CQ37" s="83" t="inlineStr">
+      <c r="CQ37" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -72979,7 +72970,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CY37" s="82" t="inlineStr">
+      <c r="CY37" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -72994,7 +72985,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DB37" s="83" t="inlineStr">
+      <c r="DB37" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73009,7 +73000,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DE37" s="83" t="inlineStr">
+      <c r="DE37" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73024,7 +73015,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DH37" s="83" t="inlineStr">
+      <c r="DH37" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73039,7 +73030,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DK37" s="83" t="inlineStr">
+      <c r="DK37" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73054,7 +73045,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DN37" s="83" t="inlineStr">
+      <c r="DN37" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73069,7 +73060,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DQ37" s="83" t="inlineStr">
+      <c r="DQ37" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73084,7 +73075,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DT37" s="83" t="inlineStr">
+      <c r="DT37" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73099,7 +73090,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DW37" s="83" t="inlineStr">
+      <c r="DW37" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73114,7 +73105,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DZ37" s="83" t="inlineStr">
+      <c r="DZ37" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73129,7 +73120,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EC37" s="83" t="inlineStr">
+      <c r="EC37" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73144,7 +73135,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EF37" s="83" t="inlineStr">
+      <c r="EF37" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73159,7 +73150,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EI37" s="83" t="inlineStr">
+      <c r="EI37" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73400,7 +73391,7 @@
       <c r="BD39" s="56" t="n">
         <v>14</v>
       </c>
-      <c r="BG39" s="82" t="inlineStr">
+      <c r="BG39" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73415,7 +73406,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BJ39" s="83" t="inlineStr">
+      <c r="BJ39" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73430,7 +73421,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BM39" s="83" t="inlineStr">
+      <c r="BM39" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73445,7 +73436,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BP39" s="83" t="inlineStr">
+      <c r="BP39" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73460,7 +73451,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BS39" s="83" t="inlineStr">
+      <c r="BS39" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73475,7 +73466,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BV39" s="83" t="inlineStr">
+      <c r="BV39" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73490,7 +73481,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BY39" s="83" t="inlineStr">
+      <c r="BY39" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73505,7 +73496,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CB39" s="83" t="inlineStr">
+      <c r="CB39" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73520,7 +73511,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CE39" s="83" t="inlineStr">
+      <c r="CE39" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73535,7 +73526,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CH39" s="83" t="inlineStr">
+      <c r="CH39" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73550,7 +73541,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CK39" s="83" t="inlineStr">
+      <c r="CK39" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73565,7 +73556,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CN39" s="83" t="inlineStr">
+      <c r="CN39" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73580,7 +73571,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CQ39" s="83" t="inlineStr">
+      <c r="CQ39" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73600,7 +73591,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CY39" s="82" t="inlineStr">
+      <c r="CY39" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73615,7 +73606,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DB39" s="83" t="inlineStr">
+      <c r="DB39" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73630,7 +73621,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DE39" s="83" t="inlineStr">
+      <c r="DE39" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73645,7 +73636,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DH39" s="83" t="inlineStr">
+      <c r="DH39" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73660,7 +73651,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DK39" s="83" t="inlineStr">
+      <c r="DK39" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73675,7 +73666,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DN39" s="83" t="inlineStr">
+      <c r="DN39" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73690,7 +73681,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DQ39" s="83" t="inlineStr">
+      <c r="DQ39" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73705,7 +73696,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DT39" s="83" t="inlineStr">
+      <c r="DT39" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73720,7 +73711,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DW39" s="83" t="inlineStr">
+      <c r="DW39" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73735,7 +73726,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DZ39" s="83" t="inlineStr">
+      <c r="DZ39" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73750,7 +73741,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EC39" s="83" t="inlineStr">
+      <c r="EC39" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73765,7 +73756,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EF39" s="83" t="inlineStr">
+      <c r="EF39" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73780,7 +73771,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EI39" s="83" t="inlineStr">
+      <c r="EI39" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73892,7 +73883,7 @@
       <c r="BD41" s="56" t="n">
         <v>15</v>
       </c>
-      <c r="BG41" s="82" t="inlineStr">
+      <c r="BG41" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73907,7 +73898,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BJ41" s="83" t="inlineStr">
+      <c r="BJ41" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73922,7 +73913,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BM41" s="83" t="inlineStr">
+      <c r="BM41" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73937,7 +73928,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BP41" s="83" t="inlineStr">
+      <c r="BP41" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73952,7 +73943,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BS41" s="83" t="inlineStr">
+      <c r="BS41" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73967,7 +73958,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BV41" s="83" t="inlineStr">
+      <c r="BV41" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73982,7 +73973,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BY41" s="83" t="inlineStr">
+      <c r="BY41" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -73997,7 +73988,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CB41" s="83" t="inlineStr">
+      <c r="CB41" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74012,7 +74003,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CE41" s="83" t="inlineStr">
+      <c r="CE41" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74027,7 +74018,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CH41" s="83" t="inlineStr">
+      <c r="CH41" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74042,7 +74033,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CK41" s="83" t="inlineStr">
+      <c r="CK41" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74057,7 +74048,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CN41" s="83" t="inlineStr">
+      <c r="CN41" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74072,7 +74063,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CQ41" s="83" t="inlineStr">
+      <c r="CQ41" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74092,7 +74083,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CY41" s="82" t="inlineStr">
+      <c r="CY41" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74107,7 +74098,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DB41" s="83" t="inlineStr">
+      <c r="DB41" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74122,7 +74113,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DE41" s="83" t="inlineStr">
+      <c r="DE41" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74137,7 +74128,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DH41" s="83" t="inlineStr">
+      <c r="DH41" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74152,7 +74143,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DK41" s="83" t="inlineStr">
+      <c r="DK41" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74167,7 +74158,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DN41" s="83" t="inlineStr">
+      <c r="DN41" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74182,7 +74173,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DQ41" s="83" t="inlineStr">
+      <c r="DQ41" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74197,7 +74188,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DT41" s="83" t="inlineStr">
+      <c r="DT41" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74212,7 +74203,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DW41" s="83" t="inlineStr">
+      <c r="DW41" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74227,7 +74218,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DZ41" s="83" t="inlineStr">
+      <c r="DZ41" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74242,7 +74233,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EC41" s="83" t="inlineStr">
+      <c r="EC41" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74257,7 +74248,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EF41" s="83" t="inlineStr">
+      <c r="EF41" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74272,7 +74263,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EI41" s="83" t="inlineStr">
+      <c r="EI41" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74513,7 +74504,7 @@
       <c r="BD43" s="56" t="n">
         <v>16</v>
       </c>
-      <c r="BG43" s="82" t="inlineStr">
+      <c r="BG43" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74528,7 +74519,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BJ43" s="83" t="inlineStr">
+      <c r="BJ43" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74543,7 +74534,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BM43" s="83" t="inlineStr">
+      <c r="BM43" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74558,7 +74549,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BP43" s="83" t="inlineStr">
+      <c r="BP43" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74573,7 +74564,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BS43" s="83" t="inlineStr">
+      <c r="BS43" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74588,7 +74579,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BV43" s="83" t="inlineStr">
+      <c r="BV43" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74603,7 +74594,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BY43" s="83" t="inlineStr">
+      <c r="BY43" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74618,7 +74609,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CB43" s="83" t="inlineStr">
+      <c r="CB43" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74633,7 +74624,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CE43" s="83" t="inlineStr">
+      <c r="CE43" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74648,7 +74639,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CH43" s="83" t="inlineStr">
+      <c r="CH43" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74663,7 +74654,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CK43" s="83" t="inlineStr">
+      <c r="CK43" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74678,7 +74669,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CN43" s="83" t="inlineStr">
+      <c r="CN43" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74693,7 +74684,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CQ43" s="83" t="inlineStr">
+      <c r="CQ43" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74713,7 +74704,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CY43" s="82" t="inlineStr">
+      <c r="CY43" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74728,7 +74719,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DB43" s="83" t="inlineStr">
+      <c r="DB43" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74743,7 +74734,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DE43" s="83" t="inlineStr">
+      <c r="DE43" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74758,7 +74749,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DH43" s="83" t="inlineStr">
+      <c r="DH43" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74773,7 +74764,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DK43" s="83" t="inlineStr">
+      <c r="DK43" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74788,7 +74779,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DN43" s="83" t="inlineStr">
+      <c r="DN43" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74803,7 +74794,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DQ43" s="83" t="inlineStr">
+      <c r="DQ43" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74818,7 +74809,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DT43" s="83" t="inlineStr">
+      <c r="DT43" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74833,7 +74824,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DW43" s="83" t="inlineStr">
+      <c r="DW43" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74848,7 +74839,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DZ43" s="83" t="inlineStr">
+      <c r="DZ43" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74863,7 +74854,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EC43" s="83" t="inlineStr">
+      <c r="EC43" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74878,7 +74869,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EF43" s="83" t="inlineStr">
+      <c r="EF43" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -74893,7 +74884,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EI43" s="83" t="inlineStr">
+      <c r="EI43" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -75157,7 +75148,7 @@
       <c r="BD45" s="56" t="n">
         <v>17</v>
       </c>
-      <c r="BG45" s="82" t="inlineStr">
+      <c r="BG45" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -75172,7 +75163,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BJ45" s="83" t="inlineStr">
+      <c r="BJ45" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -75187,7 +75178,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BM45" s="83" t="inlineStr">
+      <c r="BM45" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -75202,7 +75193,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BP45" s="83" t="inlineStr">
+      <c r="BP45" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -75217,7 +75208,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BS45" s="83" t="inlineStr">
+      <c r="BS45" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -75232,7 +75223,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BV45" s="83" t="inlineStr">
+      <c r="BV45" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -75247,7 +75238,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BY45" s="83" t="inlineStr">
+      <c r="BY45" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -75262,7 +75253,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CB45" s="83" t="inlineStr">
+      <c r="CB45" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -75277,7 +75268,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CE45" s="83" t="inlineStr">
+      <c r="CE45" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -75292,7 +75283,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CH45" s="83" t="inlineStr">
+      <c r="CH45" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -75307,7 +75298,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CK45" s="83" t="inlineStr">
+      <c r="CK45" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -75322,7 +75313,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CN45" s="83" t="inlineStr">
+      <c r="CN45" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -75337,7 +75328,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CQ45" s="83" t="inlineStr">
+      <c r="CQ45" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -75357,7 +75348,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CY45" s="82" t="inlineStr">
+      <c r="CY45" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -75372,7 +75363,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DB45" s="83" t="inlineStr">
+      <c r="DB45" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -75387,7 +75378,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DE45" s="83" t="inlineStr">
+      <c r="DE45" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -75402,7 +75393,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DH45" s="83" t="inlineStr">
+      <c r="DH45" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -75417,7 +75408,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DK45" s="83" t="inlineStr">
+      <c r="DK45" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -75432,7 +75423,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DN45" s="83" t="inlineStr">
+      <c r="DN45" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -75447,7 +75438,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DQ45" s="83" t="inlineStr">
+      <c r="DQ45" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -75462,7 +75453,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DT45" s="83" t="inlineStr">
+      <c r="DT45" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -75477,7 +75468,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DW45" s="83" t="inlineStr">
+      <c r="DW45" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -75492,7 +75483,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DZ45" s="83" t="inlineStr">
+      <c r="DZ45" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -75507,7 +75498,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EC45" s="83" t="inlineStr">
+      <c r="EC45" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -75522,7 +75513,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EF45" s="83" t="inlineStr">
+      <c r="EF45" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -75537,7 +75528,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EI45" s="83" t="inlineStr">
+      <c r="EI45" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -75801,7 +75792,7 @@
       <c r="BD47" s="56" t="n">
         <v>18</v>
       </c>
-      <c r="BG47" s="82" t="inlineStr">
+      <c r="BG47" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -75816,7 +75807,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BJ47" s="83" t="inlineStr">
+      <c r="BJ47" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -75831,7 +75822,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BM47" s="83" t="inlineStr">
+      <c r="BM47" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -75846,7 +75837,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BP47" s="83" t="inlineStr">
+      <c r="BP47" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -75861,7 +75852,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BS47" s="83" t="inlineStr">
+      <c r="BS47" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -75876,7 +75867,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BV47" s="83" t="inlineStr">
+      <c r="BV47" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -75891,7 +75882,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BY47" s="83" t="inlineStr">
+      <c r="BY47" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -75906,7 +75897,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CB47" s="83" t="inlineStr">
+      <c r="CB47" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -75921,7 +75912,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CE47" s="83" t="inlineStr">
+      <c r="CE47" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -75936,7 +75927,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CH47" s="83" t="inlineStr">
+      <c r="CH47" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -75951,7 +75942,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CK47" s="83" t="inlineStr">
+      <c r="CK47" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -75966,7 +75957,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CN47" s="83" t="inlineStr">
+      <c r="CN47" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -75981,7 +75972,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CQ47" s="83" t="inlineStr">
+      <c r="CQ47" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -76001,7 +75992,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CY47" s="82" t="inlineStr">
+      <c r="CY47" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -76016,7 +76007,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DB47" s="83" t="inlineStr">
+      <c r="DB47" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -76031,7 +76022,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DE47" s="83" t="inlineStr">
+      <c r="DE47" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -76046,7 +76037,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DH47" s="83" t="inlineStr">
+      <c r="DH47" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -76061,7 +76052,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DK47" s="83" t="inlineStr">
+      <c r="DK47" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -76076,7 +76067,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DN47" s="83" t="inlineStr">
+      <c r="DN47" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -76091,7 +76082,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DQ47" s="83" t="inlineStr">
+      <c r="DQ47" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -76106,7 +76097,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DT47" s="83" t="inlineStr">
+      <c r="DT47" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -76121,7 +76112,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DW47" s="83" t="inlineStr">
+      <c r="DW47" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -76136,7 +76127,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DZ47" s="83" t="inlineStr">
+      <c r="DZ47" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -76151,7 +76142,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EC47" s="83" t="inlineStr">
+      <c r="EC47" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -76166,7 +76157,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EF47" s="83" t="inlineStr">
+      <c r="EF47" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -76181,7 +76172,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EI47" s="83" t="inlineStr">
+      <c r="EI47" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -76522,7 +76513,7 @@
       <c r="BD49" s="56" t="n">
         <v>19</v>
       </c>
-      <c r="BG49" s="82" t="inlineStr">
+      <c r="BG49" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -76537,7 +76528,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BJ49" s="83" t="inlineStr">
+      <c r="BJ49" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -76552,7 +76543,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BM49" s="83" t="inlineStr">
+      <c r="BM49" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -76567,7 +76558,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BP49" s="83" t="inlineStr">
+      <c r="BP49" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -76582,7 +76573,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BS49" s="83" t="inlineStr">
+      <c r="BS49" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -76597,7 +76588,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BV49" s="83" t="inlineStr">
+      <c r="BV49" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -76612,7 +76603,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BY49" s="83" t="inlineStr">
+      <c r="BY49" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -76627,7 +76618,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CB49" s="83" t="inlineStr">
+      <c r="CB49" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -76642,7 +76633,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CE49" s="83" t="inlineStr">
+      <c r="CE49" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -76657,7 +76648,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CH49" s="83" t="inlineStr">
+      <c r="CH49" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -76672,7 +76663,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CK49" s="83" t="inlineStr">
+      <c r="CK49" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -76687,7 +76678,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CN49" s="83" t="inlineStr">
+      <c r="CN49" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -76702,7 +76693,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CQ49" s="83" t="inlineStr">
+      <c r="CQ49" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -76722,7 +76713,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CY49" s="82" t="inlineStr">
+      <c r="CY49" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -76737,7 +76728,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DB49" s="83" t="inlineStr">
+      <c r="DB49" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -76752,7 +76743,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DE49" s="83" t="inlineStr">
+      <c r="DE49" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -76767,7 +76758,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DH49" s="83" t="inlineStr">
+      <c r="DH49" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -76782,7 +76773,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DK49" s="83" t="inlineStr">
+      <c r="DK49" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -76797,7 +76788,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DN49" s="83" t="inlineStr">
+      <c r="DN49" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -76812,7 +76803,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DQ49" s="83" t="inlineStr">
+      <c r="DQ49" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -76827,7 +76818,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DT49" s="83" t="inlineStr">
+      <c r="DT49" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -76842,7 +76833,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DW49" s="83" t="inlineStr">
+      <c r="DW49" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -76857,7 +76848,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DZ49" s="83" t="inlineStr">
+      <c r="DZ49" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -76872,7 +76863,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EC49" s="83" t="inlineStr">
+      <c r="EC49" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -76887,7 +76878,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EF49" s="83" t="inlineStr">
+      <c r="EF49" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -76902,7 +76893,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EI49" s="83" t="inlineStr">
+      <c r="EI49" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -77166,7 +77157,7 @@
       <c r="BD51" s="56" t="n">
         <v>20</v>
       </c>
-      <c r="BG51" s="82" t="inlineStr">
+      <c r="BG51" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -77181,7 +77172,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BJ51" s="83" t="inlineStr">
+      <c r="BJ51" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -77196,7 +77187,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BM51" s="83" t="inlineStr">
+      <c r="BM51" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -77211,7 +77202,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BP51" s="83" t="inlineStr">
+      <c r="BP51" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -77226,7 +77217,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BS51" s="83" t="inlineStr">
+      <c r="BS51" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -77241,7 +77232,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BV51" s="83" t="inlineStr">
+      <c r="BV51" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -77256,7 +77247,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BY51" s="83" t="inlineStr">
+      <c r="BY51" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -77271,7 +77262,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CB51" s="83" t="inlineStr">
+      <c r="CB51" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -77286,7 +77277,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CE51" s="83" t="inlineStr">
+      <c r="CE51" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -77301,7 +77292,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CH51" s="83" t="inlineStr">
+      <c r="CH51" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -77316,7 +77307,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CK51" s="83" t="inlineStr">
+      <c r="CK51" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -77331,7 +77322,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CN51" s="83" t="inlineStr">
+      <c r="CN51" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -77346,7 +77337,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CQ51" s="83" t="inlineStr">
+      <c r="CQ51" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -77366,7 +77357,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CY51" s="82" t="inlineStr">
+      <c r="CY51" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -77381,7 +77372,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DB51" s="83" t="inlineStr">
+      <c r="DB51" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -77396,7 +77387,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DE51" s="83" t="inlineStr">
+      <c r="DE51" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -77411,7 +77402,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DH51" s="83" t="inlineStr">
+      <c r="DH51" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -77426,7 +77417,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DK51" s="83" t="inlineStr">
+      <c r="DK51" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -77441,7 +77432,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DN51" s="83" t="inlineStr">
+      <c r="DN51" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -77456,7 +77447,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DQ51" s="83" t="inlineStr">
+      <c r="DQ51" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -77471,7 +77462,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DT51" s="83" t="inlineStr">
+      <c r="DT51" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -77486,7 +77477,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DW51" s="83" t="inlineStr">
+      <c r="DW51" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -77501,7 +77492,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DZ51" s="83" t="inlineStr">
+      <c r="DZ51" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -77516,7 +77507,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EC51" s="83" t="inlineStr">
+      <c r="EC51" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -77531,7 +77522,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EF51" s="83" t="inlineStr">
+      <c r="EF51" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -77546,7 +77537,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EI51" s="83" t="inlineStr">
+      <c r="EI51" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -77810,7 +77801,7 @@
       <c r="BD53" s="56" t="n">
         <v>21</v>
       </c>
-      <c r="BG53" s="82" t="inlineStr">
+      <c r="BG53" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -77825,7 +77816,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BJ53" s="83" t="inlineStr">
+      <c r="BJ53" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -77840,7 +77831,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BM53" s="83" t="inlineStr">
+      <c r="BM53" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -77855,7 +77846,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BP53" s="83" t="inlineStr">
+      <c r="BP53" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -77870,7 +77861,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BS53" s="83" t="inlineStr">
+      <c r="BS53" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -77885,7 +77876,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BV53" s="83" t="inlineStr">
+      <c r="BV53" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -77900,7 +77891,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BY53" s="83" t="inlineStr">
+      <c r="BY53" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -77915,7 +77906,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CB53" s="83" t="inlineStr">
+      <c r="CB53" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -77930,7 +77921,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CE53" s="83" t="inlineStr">
+      <c r="CE53" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -77945,7 +77936,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CH53" s="83" t="inlineStr">
+      <c r="CH53" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -77960,7 +77951,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CK53" s="83" t="inlineStr">
+      <c r="CK53" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -77975,7 +77966,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CN53" s="83" t="inlineStr">
+      <c r="CN53" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -77990,7 +77981,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CQ53" s="83" t="inlineStr">
+      <c r="CQ53" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -78010,7 +78001,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CY53" s="82" t="inlineStr">
+      <c r="CY53" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -78025,7 +78016,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DB53" s="83" t="inlineStr">
+      <c r="DB53" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -78040,7 +78031,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DE53" s="83" t="inlineStr">
+      <c r="DE53" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -78055,7 +78046,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DH53" s="83" t="inlineStr">
+      <c r="DH53" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -78070,7 +78061,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DK53" s="83" t="inlineStr">
+      <c r="DK53" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -78085,7 +78076,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DN53" s="83" t="inlineStr">
+      <c r="DN53" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -78100,7 +78091,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DQ53" s="83" t="inlineStr">
+      <c r="DQ53" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -78115,7 +78106,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DT53" s="83" t="inlineStr">
+      <c r="DT53" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -78130,7 +78121,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DW53" s="83" t="inlineStr">
+      <c r="DW53" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -78145,7 +78136,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DZ53" s="83" t="inlineStr">
+      <c r="DZ53" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -78160,7 +78151,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EC53" s="83" t="inlineStr">
+      <c r="EC53" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -78175,7 +78166,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EF53" s="83" t="inlineStr">
+      <c r="EF53" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -78190,7 +78181,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EI53" s="83" t="inlineStr">
+      <c r="EI53" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -78454,7 +78445,7 @@
       <c r="BD55" s="56" t="n">
         <v>22</v>
       </c>
-      <c r="BG55" s="88" t="inlineStr">
+      <c r="BG55" s="85" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -78469,7 +78460,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BJ55" s="90" t="inlineStr">
+      <c r="BJ55" s="87" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -78484,7 +78475,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BM55" s="90" t="inlineStr">
+      <c r="BM55" s="87" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -78499,7 +78490,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BP55" s="90" t="inlineStr">
+      <c r="BP55" s="87" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -78514,7 +78505,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BS55" s="83" t="inlineStr">
+      <c r="BS55" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -78529,7 +78520,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BV55" s="83" t="inlineStr">
+      <c r="BV55" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -78544,7 +78535,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BY55" s="83" t="inlineStr">
+      <c r="BY55" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -78559,7 +78550,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CB55" s="83" t="inlineStr">
+      <c r="CB55" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -78574,7 +78565,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CE55" s="83" t="inlineStr">
+      <c r="CE55" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -78589,7 +78580,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CH55" s="83" t="inlineStr">
+      <c r="CH55" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -78604,7 +78595,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CK55" s="83" t="inlineStr">
+      <c r="CK55" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -78619,7 +78610,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CN55" s="83" t="inlineStr">
+      <c r="CN55" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -78634,7 +78625,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CQ55" s="83" t="inlineStr">
+      <c r="CQ55" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -78654,7 +78645,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CY55" s="82" t="inlineStr">
+      <c r="CY55" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -78669,7 +78660,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DB55" s="83" t="inlineStr">
+      <c r="DB55" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -78684,7 +78675,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DE55" s="83" t="inlineStr">
+      <c r="DE55" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -78699,7 +78690,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DH55" s="83" t="inlineStr">
+      <c r="DH55" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -78714,7 +78705,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DK55" s="83" t="inlineStr">
+      <c r="DK55" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -78729,7 +78720,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DN55" s="83" t="inlineStr">
+      <c r="DN55" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -78744,7 +78735,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DQ55" s="83" t="inlineStr">
+      <c r="DQ55" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -78759,7 +78750,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DT55" s="83" t="inlineStr">
+      <c r="DT55" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -78774,7 +78765,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DW55" s="83" t="inlineStr">
+      <c r="DW55" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -78789,7 +78780,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DZ55" s="83" t="inlineStr">
+      <c r="DZ55" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -78804,7 +78795,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EC55" s="90" t="inlineStr">
+      <c r="EC55" s="87" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -78819,7 +78810,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EF55" s="90" t="inlineStr">
+      <c r="EF55" s="87" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -78834,7 +78825,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EI55" s="90" t="inlineStr">
+      <c r="EI55" s="87" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -78849,7 +78840,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="EL55" s="89" t="inlineStr">
+      <c r="EL55" s="86" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -79098,7 +79089,7 @@
       <c r="BQ57" s="56" t="n">
         <v>23</v>
       </c>
-      <c r="BS57" s="82" t="inlineStr">
+      <c r="BS57" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -79113,7 +79104,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BV57" s="83" t="inlineStr">
+      <c r="BV57" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -79128,7 +79119,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BY57" s="83" t="inlineStr">
+      <c r="BY57" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -79143,7 +79134,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CB57" s="83" t="inlineStr">
+      <c r="CB57" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -79158,7 +79149,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CE57" s="83" t="inlineStr">
+      <c r="CE57" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -79173,7 +79164,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CH57" s="83" t="inlineStr">
+      <c r="CH57" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -79188,7 +79179,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CK57" s="83" t="inlineStr">
+      <c r="CK57" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -79203,7 +79194,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CN57" s="83" t="inlineStr">
+      <c r="CN57" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -79218,7 +79209,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CQ57" s="83" t="inlineStr">
+      <c r="CQ57" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -79238,7 +79229,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CY57" s="82" t="inlineStr">
+      <c r="CY57" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -79253,7 +79244,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DB57" s="83" t="inlineStr">
+      <c r="DB57" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -79268,7 +79259,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DE57" s="83" t="inlineStr">
+      <c r="DE57" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -79283,7 +79274,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DH57" s="83" t="inlineStr">
+      <c r="DH57" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -79298,7 +79289,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DK57" s="83" t="inlineStr">
+      <c r="DK57" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -79313,7 +79304,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DN57" s="83" t="inlineStr">
+      <c r="DN57" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -79328,7 +79319,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DQ57" s="83" t="inlineStr">
+      <c r="DQ57" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -79343,7 +79334,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DT57" s="83" t="inlineStr">
+      <c r="DT57" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -79358,7 +79349,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DW57" s="83" t="inlineStr">
+      <c r="DW57" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -79616,7 +79607,7 @@
       <c r="BQ59" s="56" t="n">
         <v>24</v>
       </c>
-      <c r="BS59" s="82" t="inlineStr">
+      <c r="BS59" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -79631,7 +79622,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BV59" s="83" t="inlineStr">
+      <c r="BV59" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -79646,7 +79637,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BY59" s="83" t="inlineStr">
+      <c r="BY59" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -79661,7 +79652,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CB59" s="83" t="inlineStr">
+      <c r="CB59" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -79676,7 +79667,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CE59" s="83" t="inlineStr">
+      <c r="CE59" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -79691,7 +79682,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CH59" s="83" t="inlineStr">
+      <c r="CH59" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -79706,7 +79697,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CK59" s="83" t="inlineStr">
+      <c r="CK59" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -79721,7 +79712,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CN59" s="83" t="inlineStr">
+      <c r="CN59" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -79736,7 +79727,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CQ59" s="83" t="inlineStr">
+      <c r="CQ59" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -79756,7 +79747,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CY59" s="82" t="inlineStr">
+      <c r="CY59" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -79771,7 +79762,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DB59" s="83" t="inlineStr">
+      <c r="DB59" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -79786,7 +79777,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DE59" s="83" t="inlineStr">
+      <c r="DE59" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -79801,7 +79792,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DH59" s="83" t="inlineStr">
+      <c r="DH59" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -79816,7 +79807,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DK59" s="83" t="inlineStr">
+      <c r="DK59" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -79831,7 +79822,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DN59" s="83" t="inlineStr">
+      <c r="DN59" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -79846,7 +79837,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DQ59" s="83" t="inlineStr">
+      <c r="DQ59" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -79861,7 +79852,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DT59" s="83" t="inlineStr">
+      <c r="DT59" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -79876,7 +79867,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DW59" s="83" t="inlineStr">
+      <c r="DW59" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -80047,7 +80038,7 @@
       <c r="BQ61" s="56" t="n">
         <v>25</v>
       </c>
-      <c r="BS61" s="82" t="inlineStr">
+      <c r="BS61" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -80062,7 +80053,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BV61" s="83" t="inlineStr">
+      <c r="BV61" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -80077,7 +80068,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BY61" s="83" t="inlineStr">
+      <c r="BY61" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -80092,7 +80083,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CB61" s="83" t="inlineStr">
+      <c r="CB61" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -80107,7 +80098,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CE61" s="83" t="inlineStr">
+      <c r="CE61" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -80122,7 +80113,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CH61" s="83" t="inlineStr">
+      <c r="CH61" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -80137,7 +80128,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CK61" s="83" t="inlineStr">
+      <c r="CK61" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -80152,7 +80143,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CN61" s="83" t="inlineStr">
+      <c r="CN61" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -80167,7 +80158,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CQ61" s="83" t="inlineStr">
+      <c r="CQ61" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -80187,7 +80178,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CY61" s="82" t="inlineStr">
+      <c r="CY61" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -80202,7 +80193,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DB61" s="83" t="inlineStr">
+      <c r="DB61" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -80217,7 +80208,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DE61" s="83" t="inlineStr">
+      <c r="DE61" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -80232,7 +80223,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DH61" s="83" t="inlineStr">
+      <c r="DH61" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -80247,7 +80238,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DK61" s="83" t="inlineStr">
+      <c r="DK61" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -80262,7 +80253,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DN61" s="83" t="inlineStr">
+      <c r="DN61" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -80277,7 +80268,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DQ61" s="83" t="inlineStr">
+      <c r="DQ61" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -80292,7 +80283,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DT61" s="83" t="inlineStr">
+      <c r="DT61" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -80307,7 +80298,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DW61" s="83" t="inlineStr">
+      <c r="DW61" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -80457,7 +80448,7 @@
       <c r="BQ63" s="56" t="n">
         <v>26</v>
       </c>
-      <c r="BS63" s="82" t="inlineStr">
+      <c r="BS63" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -80472,7 +80463,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BV63" s="83" t="inlineStr">
+      <c r="BV63" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -80487,7 +80478,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BY63" s="83" t="inlineStr">
+      <c r="BY63" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -80502,7 +80493,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CB63" s="83" t="inlineStr">
+      <c r="CB63" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -80517,7 +80508,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CE63" s="83" t="inlineStr">
+      <c r="CE63" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -80532,7 +80523,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CH63" s="83" t="inlineStr">
+      <c r="CH63" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -80547,7 +80538,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CK63" s="83" t="inlineStr">
+      <c r="CK63" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -80562,7 +80553,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CN63" s="83" t="inlineStr">
+      <c r="CN63" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -80577,7 +80568,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CQ63" s="83" t="inlineStr">
+      <c r="CQ63" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -80597,7 +80588,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CY63" s="82" t="inlineStr">
+      <c r="CY63" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -80612,7 +80603,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DB63" s="83" t="inlineStr">
+      <c r="DB63" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -80627,7 +80618,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DE63" s="83" t="inlineStr">
+      <c r="DE63" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -80642,7 +80633,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DH63" s="83" t="inlineStr">
+      <c r="DH63" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -80657,7 +80648,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DK63" s="83" t="inlineStr">
+      <c r="DK63" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -80672,7 +80663,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DN63" s="83" t="inlineStr">
+      <c r="DN63" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -80687,7 +80678,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DQ63" s="83" t="inlineStr">
+      <c r="DQ63" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -80702,7 +80693,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DT63" s="83" t="inlineStr">
+      <c r="DT63" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -80717,7 +80708,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DW63" s="83" t="inlineStr">
+      <c r="DW63" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -81018,7 +81009,7 @@
       <c r="BQ65" s="56" t="n">
         <v>27</v>
       </c>
-      <c r="BS65" s="82" t="inlineStr">
+      <c r="BS65" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -81033,7 +81024,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BV65" s="83" t="inlineStr">
+      <c r="BV65" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -81048,7 +81039,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BY65" s="83" t="inlineStr">
+      <c r="BY65" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -81063,7 +81054,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CB65" s="83" t="inlineStr">
+      <c r="CB65" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -81078,7 +81069,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CE65" s="83" t="inlineStr">
+      <c r="CE65" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -81093,7 +81084,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CH65" s="83" t="inlineStr">
+      <c r="CH65" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -81108,7 +81099,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CK65" s="83" t="inlineStr">
+      <c r="CK65" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -81123,7 +81114,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CN65" s="83" t="inlineStr">
+      <c r="CN65" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -81138,7 +81129,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CQ65" s="83" t="inlineStr">
+      <c r="CQ65" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -81158,7 +81149,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CY65" s="82" t="inlineStr">
+      <c r="CY65" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -81173,7 +81164,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DB65" s="83" t="inlineStr">
+      <c r="DB65" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -81188,7 +81179,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DE65" s="83" t="inlineStr">
+      <c r="DE65" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -81203,7 +81194,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DH65" s="83" t="inlineStr">
+      <c r="DH65" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -81218,7 +81209,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DK65" s="83" t="inlineStr">
+      <c r="DK65" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -81233,7 +81224,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DN65" s="83" t="inlineStr">
+      <c r="DN65" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -81248,7 +81239,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DQ65" s="83" t="inlineStr">
+      <c r="DQ65" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -81263,7 +81254,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DT65" s="83" t="inlineStr">
+      <c r="DT65" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -81278,7 +81269,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DW65" s="83" t="inlineStr">
+      <c r="DW65" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -81539,7 +81530,7 @@
       <c r="BQ67" s="56" t="n">
         <v>28</v>
       </c>
-      <c r="BS67" s="82" t="inlineStr">
+      <c r="BS67" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -81554,7 +81545,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BV67" s="83" t="inlineStr">
+      <c r="BV67" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -81569,7 +81560,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BY67" s="83" t="inlineStr">
+      <c r="BY67" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -81584,7 +81575,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CB67" s="83" t="inlineStr">
+      <c r="CB67" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -81599,7 +81590,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CE67" s="83" t="inlineStr">
+      <c r="CE67" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -81614,7 +81605,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CH67" s="83" t="inlineStr">
+      <c r="CH67" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -81629,7 +81620,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CK67" s="83" t="inlineStr">
+      <c r="CK67" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -81644,7 +81635,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CN67" s="83" t="inlineStr">
+      <c r="CN67" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -81659,7 +81650,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CQ67" s="83" t="inlineStr">
+      <c r="CQ67" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -81679,7 +81670,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CY67" s="82" t="inlineStr">
+      <c r="CY67" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -81694,7 +81685,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DB67" s="83" t="inlineStr">
+      <c r="DB67" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -81709,7 +81700,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DE67" s="83" t="inlineStr">
+      <c r="DE67" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -81724,7 +81715,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DH67" s="83" t="inlineStr">
+      <c r="DH67" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -81739,7 +81730,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DK67" s="83" t="inlineStr">
+      <c r="DK67" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -81754,7 +81745,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DN67" s="83" t="inlineStr">
+      <c r="DN67" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -81769,7 +81760,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DQ67" s="83" t="inlineStr">
+      <c r="DQ67" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -81784,7 +81775,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DT67" s="83" t="inlineStr">
+      <c r="DT67" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -81799,7 +81790,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DW67" s="83" t="inlineStr">
+      <c r="DW67" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -82063,7 +82054,7 @@
       <c r="BQ69" s="56" t="n">
         <v>29</v>
       </c>
-      <c r="BS69" s="82" t="inlineStr">
+      <c r="BS69" s="79" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -82078,7 +82069,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BV69" s="83" t="inlineStr">
+      <c r="BV69" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -82093,7 +82084,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BY69" s="83" t="inlineStr">
+      <c r="BY69" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -82108,7 +82099,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CB69" s="83" t="inlineStr">
+      <c r="CB69" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -82123,7 +82114,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CE69" s="83" t="inlineStr">
+      <c r="CE69" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -82138,7 +82129,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CH69" s="83" t="inlineStr">
+      <c r="CH69" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -82153,7 +82144,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CK69" s="83" t="inlineStr">
+      <c r="CK69" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -82168,7 +82159,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CN69" s="83" t="inlineStr">
+      <c r="CN69" s="80" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -82183,7 +82174,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CQ69" s="83" t="inlineStr">
+      <c r="CQ69" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -82198,12 +82189,12 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CT69" s="84" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="CY69" s="82" t="inlineStr">
+      <c r="CT69" s="61" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="CY69" s="57" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -82218,7 +82209,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DB69" s="83" t="inlineStr">
+      <c r="DB69" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -82233,7 +82224,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DE69" s="83" t="inlineStr">
+      <c r="DE69" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -82248,7 +82239,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DH69" s="83" t="inlineStr">
+      <c r="DH69" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -82263,7 +82254,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DK69" s="83" t="inlineStr">
+      <c r="DK69" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -82278,7 +82269,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DN69" s="83" t="inlineStr">
+      <c r="DN69" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -82293,7 +82284,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DQ69" s="83" t="inlineStr">
+      <c r="DQ69" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -82308,7 +82299,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DT69" s="83" t="inlineStr">
+      <c r="DT69" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -82323,7 +82314,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DW69" s="83" t="inlineStr">
+      <c r="DW69" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -82338,7 +82329,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DZ69" s="84" t="inlineStr">
+      <c r="DZ69" s="61" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -82587,7 +82578,7 @@
       <c r="BQ71" s="56" t="n">
         <v>30</v>
       </c>
-      <c r="BS71" s="82" t="inlineStr">
+      <c r="BS71" s="57" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -82602,7 +82593,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BV71" s="83" t="inlineStr">
+      <c r="BV71" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -82617,7 +82608,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BY71" s="83" t="inlineStr">
+      <c r="BY71" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -82632,7 +82623,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CB71" s="83" t="inlineStr">
+      <c r="CB71" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -82647,7 +82638,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CE71" s="83" t="inlineStr">
+      <c r="CE71" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -82662,7 +82653,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CH71" s="83" t="inlineStr">
+      <c r="CH71" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -82677,7 +82668,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CK71" s="83" t="inlineStr">
+      <c r="CK71" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -82692,7 +82683,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CN71" s="83" t="inlineStr">
+      <c r="CN71" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -82707,7 +82698,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CQ71" s="83" t="inlineStr">
+      <c r="CQ71" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -82722,12 +82713,12 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CT71" s="84" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="CY71" s="82" t="inlineStr">
+      <c r="CT71" s="61" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="CY71" s="57" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -82742,7 +82733,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DB71" s="83" t="inlineStr">
+      <c r="DB71" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -82757,7 +82748,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DE71" s="83" t="inlineStr">
+      <c r="DE71" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -82772,7 +82763,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DH71" s="83" t="inlineStr">
+      <c r="DH71" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -82787,7 +82778,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DK71" s="83" t="inlineStr">
+      <c r="DK71" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -82802,7 +82793,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DN71" s="83" t="inlineStr">
+      <c r="DN71" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -82817,7 +82808,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DQ71" s="83" t="inlineStr">
+      <c r="DQ71" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -82832,7 +82823,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DT71" s="83" t="inlineStr">
+      <c r="DT71" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -82847,7 +82838,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DW71" s="83" t="inlineStr">
+      <c r="DW71" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -82862,7 +82853,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DZ71" s="84" t="inlineStr">
+      <c r="DZ71" s="61" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -83111,7 +83102,7 @@
       <c r="BQ73" s="56" t="n">
         <v>31</v>
       </c>
-      <c r="BS73" s="82" t="inlineStr">
+      <c r="BS73" s="57" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -83126,7 +83117,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BV73" s="83" t="inlineStr">
+      <c r="BV73" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -83141,7 +83132,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BY73" s="83" t="inlineStr">
+      <c r="BY73" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -83156,7 +83147,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CB73" s="83" t="inlineStr">
+      <c r="CB73" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -83171,7 +83162,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CE73" s="83" t="inlineStr">
+      <c r="CE73" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -83186,7 +83177,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CH73" s="83" t="inlineStr">
+      <c r="CH73" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -83201,7 +83192,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CK73" s="83" t="inlineStr">
+      <c r="CK73" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -83216,7 +83207,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CN73" s="83" t="inlineStr">
+      <c r="CN73" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -83231,7 +83222,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CQ73" s="83" t="inlineStr">
+      <c r="CQ73" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -83246,12 +83237,12 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CT73" s="84" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="CY73" s="82" t="inlineStr">
+      <c r="CT73" s="61" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="CY73" s="57" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -83266,7 +83257,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DB73" s="83" t="inlineStr">
+      <c r="DB73" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -83281,7 +83272,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DE73" s="83" t="inlineStr">
+      <c r="DE73" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -83296,7 +83287,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DH73" s="83" t="inlineStr">
+      <c r="DH73" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -83311,7 +83302,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DK73" s="83" t="inlineStr">
+      <c r="DK73" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -83326,7 +83317,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DN73" s="83" t="inlineStr">
+      <c r="DN73" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -83341,7 +83332,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DQ73" s="83" t="inlineStr">
+      <c r="DQ73" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -83356,7 +83347,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DT73" s="83" t="inlineStr">
+      <c r="DT73" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -83371,7 +83362,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DW73" s="83" t="inlineStr">
+      <c r="DW73" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -83386,7 +83377,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DZ73" s="84" t="inlineStr">
+      <c r="DZ73" s="61" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -83635,7 +83626,7 @@
       <c r="BQ75" s="56" t="n">
         <v>32</v>
       </c>
-      <c r="BS75" s="82" t="inlineStr">
+      <c r="BS75" s="57" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -83650,7 +83641,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BV75" s="83" t="inlineStr">
+      <c r="BV75" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -83665,7 +83656,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BY75" s="83" t="inlineStr">
+      <c r="BY75" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -83680,7 +83671,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CB75" s="83" t="inlineStr">
+      <c r="CB75" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -83695,7 +83686,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CE75" s="83" t="inlineStr">
+      <c r="CE75" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -83710,7 +83701,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CH75" s="83" t="inlineStr">
+      <c r="CH75" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -83725,7 +83716,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CK75" s="83" t="inlineStr">
+      <c r="CK75" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -83740,7 +83731,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CN75" s="83" t="inlineStr">
+      <c r="CN75" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -83755,7 +83746,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CQ75" s="83" t="inlineStr">
+      <c r="CQ75" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -83770,12 +83761,12 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CT75" s="84" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="CY75" s="82" t="inlineStr">
+      <c r="CT75" s="61" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="CY75" s="57" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -83790,7 +83781,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DB75" s="83" t="inlineStr">
+      <c r="DB75" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -83805,7 +83796,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DE75" s="83" t="inlineStr">
+      <c r="DE75" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -83820,7 +83811,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DH75" s="83" t="inlineStr">
+      <c r="DH75" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -83835,7 +83826,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DK75" s="83" t="inlineStr">
+      <c r="DK75" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -83850,7 +83841,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DN75" s="83" t="inlineStr">
+      <c r="DN75" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -83865,7 +83856,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DQ75" s="83" t="inlineStr">
+      <c r="DQ75" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -83880,7 +83871,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DT75" s="83" t="inlineStr">
+      <c r="DT75" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -83895,7 +83886,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DW75" s="83" t="inlineStr">
+      <c r="DW75" s="56" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -83910,7 +83901,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DZ75" s="84" t="inlineStr">
+      <c r="DZ75" s="61" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -84136,7 +84127,7 @@
       <c r="BQ77" s="56" t="n">
         <v>33</v>
       </c>
-      <c r="BS77" s="88" t="inlineStr">
+      <c r="BS77" s="63" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -84151,7 +84142,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BV77" s="90" t="inlineStr">
+      <c r="BV77" s="62" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -84166,7 +84157,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="BY77" s="90" t="inlineStr">
+      <c r="BY77" s="62" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -84181,7 +84172,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="CB77" s="90" t="inlineStr">
+      <c r="CB77" s="62" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -84366,7 +84357,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DQ77" s="90" t="inlineStr">
+      <c r="DQ77" s="62" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -84381,7 +84372,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DT77" s="90" t="inlineStr">
+      <c r="DT77" s="62" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -84396,7 +84387,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DW77" s="90" t="inlineStr">
+      <c r="DW77" s="62" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -84411,7 +84402,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="DZ77" s="89" t="inlineStr">
+      <c r="DZ77" s="64" t="inlineStr">
         <is>
           <t>x</t>
         </is>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanarutboonyung/Desktop/Works/OASYS/Commencement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0924BF8-96C6-1E4D-A969-68381110A9D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435FCA03-CCBB-A441-B23F-8398B3DE2CA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19780" tabRatio="730" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19780" tabRatio="730" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Block Info" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8140" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8138" uniqueCount="89">
   <si>
     <t>Block</t>
   </si>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D2">
         <f>COUNTIF('Template Inside'!AK21:AT38, "x")</f>
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="D10">
         <f>COUNTIF('Template Inside'!EY21:FH38, "x")</f>
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
@@ -1334,11 +1334,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:FX192"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AL16" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="231" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="DQ17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CG48" sqref="CG48"/>
+      <selection pane="bottomRight" activeCell="FK35" sqref="FK35:FK36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2" defaultRowHeight="11" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5090,9 +5090,6 @@
       <c r="AK34" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="AL34" s="29" t="s">
-        <v>32</v>
-      </c>
       <c r="AM34" s="29" t="s">
         <v>32</v>
       </c>
@@ -5155,9 +5152,6 @@
         <v>32</v>
       </c>
       <c r="FF34" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="FG34" s="29" t="s">
         <v>32</v>
       </c>
       <c r="FH34" s="34" t="s">
@@ -29378,7 +29372,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:FX192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" zoomScale="75" workbookViewId="0"/>
+    <sheetView topLeftCell="T16" zoomScale="200" workbookViewId="0">
+      <selection activeCell="AL38" sqref="AL22:AL38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2" defaultRowHeight="11" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
